--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168369.8987754973</v>
+        <v>163312.6313477618</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12729019.1787246</v>
+        <v>12396667.49869666</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18807999.3594104</v>
+        <v>18482261.477815</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3812342.748843182</v>
+        <v>3929082.744251658</v>
       </c>
     </row>
     <row r="11">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>173.6320210463239</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -2090,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>93.09545221568158</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2131,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2172,13 +2174,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>39.17596119039417</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2211,19 +2213,19 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>42.67344740891135</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X21" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>177.5210747552478</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>97.26327225526998</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>79.88764742793472</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,16 +2317,16 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -2333,7 +2335,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2363,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2372,16 +2374,16 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>164.9366423243502</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2397,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>88.51994503021324</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>46.89475732771444</v>
       </c>
       <c r="I24" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V24" t="n">
         <v>220.3146016126436</v>
@@ -2482,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>100.1191270474336</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2530,16 +2532,16 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W25" t="n">
+        <v>202.5496269016834</v>
+      </c>
+      <c r="X25" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="X25" t="n">
-        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2612,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2640,16 +2642,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>85.06299999376084</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
         <v>48.89338144820752</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,19 +2690,19 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>70.0682076016987</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X27" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="28">
@@ -2731,10 +2733,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>211.6296614683116</v>
       </c>
       <c r="V28" t="n">
-        <v>49.79169288685949</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>229.9609751381512</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>27.98289658589032</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2846,7 +2848,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2883,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2931,13 +2933,13 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W30" t="n">
-        <v>21.57438850939353</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>48.92535853381431</v>
       </c>
     </row>
     <row r="31">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1.848075071454455</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2995,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>202.5496269016835</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V31" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>229.9609751381512</v>
@@ -3038,10 +3040,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>65.59588116322361</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H32" t="n">
         <v>229.9609751381512</v>
@@ -3077,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>139.4038155149886</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3092,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>150.2783710965517</v>
+        <v>16.37224012658392</v>
       </c>
       <c r="C33" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -3171,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>128.4633170638966</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3187,10 +3189,10 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>144.0410585573779</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.19368839729514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,76 +3265,76 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C35" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
+        <v>202.5496269016835</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
       <c r="Y35" t="n">
-        <v>164.9366423243502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3342,28 +3344,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
-        <v>92.94867414296913</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,28 +3392,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>202.0051259077684</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -3469,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>202.5496269016835</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U37" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>109.0606995868097</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3500,76 +3502,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>164.9366423243501</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D38" t="n">
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>37.61298457733328</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="Y38" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>202.5496269016834</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>113.4363866135</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>28.11642027347089</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3639,16 +3641,16 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>86.64940239199029</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>153.923765528121</v>
+        <v>87.31669495399433</v>
       </c>
       <c r="I40" t="n">
         <v>131.7634811092929</v>
@@ -3706,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3740,64 +3742,64 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>37.70120739332342</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>164.8484195083599</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>229.9609751381512</v>
@@ -3806,7 +3808,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
     </row>
     <row r="42">
@@ -3819,19 +3821,19 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>135.0820259802211</v>
+        <v>96.41439934003316</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>48.62668177938212</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3876,13 +3878,13 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>46.79695146252663</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>74.23120026563778</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3979,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>37.70120739332346</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>103.786682361989</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4104,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>202.5496269016834</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>715.3374317791771</v>
+        <v>193.7827578558237</v>
       </c>
       <c r="C20" t="n">
-        <v>715.3374317791771</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D20" t="n">
-        <v>715.3374317791771</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E20" t="n">
-        <v>715.3374317791771</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F20" t="n">
-        <v>483.0536185083173</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G20" t="n">
-        <v>389.017808189447</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H20" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I20" t="n">
         <v>18.39687801105209</v>
@@ -5753,22 +5755,22 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K20" t="n">
-        <v>390.7080163066498</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="L20" t="n">
-        <v>390.7080163066498</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M20" t="n">
-        <v>618.3693816934194</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N20" t="n">
-        <v>846.030747080189</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P20" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q20" t="n">
         <v>919.8439005526046</v>
@@ -5777,25 +5779,25 @@
         <v>881.8509868381266</v>
       </c>
       <c r="S20" t="n">
-        <v>715.3374317791771</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T20" t="n">
-        <v>715.3374317791771</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="U20" t="n">
-        <v>715.3374317791771</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="V20" t="n">
-        <v>715.3374317791771</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="W20" t="n">
-        <v>715.3374317791771</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="X20" t="n">
-        <v>715.3374317791771</v>
+        <v>658.3503843975433</v>
       </c>
       <c r="Y20" t="n">
-        <v>715.3374317791771</v>
+        <v>426.0665711266835</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>328.6826043491906</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="C21" t="n">
-        <v>178.0283739092828</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="D21" t="n">
-        <v>178.0283739092828</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="E21" t="n">
-        <v>178.0283739092828</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="F21" t="n">
-        <v>178.0283739092828</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="G21" t="n">
-        <v>57.96855598114722</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="H21" t="n">
-        <v>57.96855598114722</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I21" t="n">
         <v>18.39687801105209</v>
@@ -5832,22 +5834,22 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K21" t="n">
-        <v>131.5118602307795</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L21" t="n">
-        <v>359.1732256175491</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M21" t="n">
-        <v>464.5211697790654</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N21" t="n">
-        <v>692.182535165835</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O21" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="P21" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q21" t="n">
         <v>919.8439005526046</v>
@@ -5859,22 +5861,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T21" t="n">
-        <v>919.8439005526046</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U21" t="n">
-        <v>919.8439005526046</v>
+        <v>699.7555964192794</v>
       </c>
       <c r="V21" t="n">
-        <v>697.3038989236717</v>
+        <v>477.2155947903464</v>
       </c>
       <c r="W21" t="n">
-        <v>697.3038989236717</v>
+        <v>247.0983489236333</v>
       </c>
       <c r="X21" t="n">
-        <v>507.9968212736833</v>
+        <v>247.0983489236333</v>
       </c>
       <c r="Y21" t="n">
-        <v>328.6826043491906</v>
+        <v>67.7841319991405</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>18.39687801105209</v>
+        <v>610.7348924938804</v>
       </c>
       <c r="C22" t="n">
-        <v>18.39687801105209</v>
+        <v>440.5297745598696</v>
       </c>
       <c r="D22" t="n">
-        <v>18.39687801105209</v>
+        <v>284.8966614623843</v>
       </c>
       <c r="E22" t="n">
-        <v>18.39687801105209</v>
+        <v>284.8966614623843</v>
       </c>
       <c r="F22" t="n">
-        <v>18.39687801105209</v>
+        <v>284.8966614623843</v>
       </c>
       <c r="G22" t="n">
-        <v>18.39687801105209</v>
+        <v>116.6426075618299</v>
       </c>
       <c r="H22" t="n">
         <v>18.39687801105209</v>
@@ -5908,7 +5910,7 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J22" t="n">
-        <v>18.39687801105217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K22" t="n">
         <v>100.231919120994</v>
@@ -5917,7 +5919,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M22" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N22" t="n">
         <v>633.8407713642671</v>
@@ -5935,25 +5937,25 @@
         <v>795.9429111851816</v>
       </c>
       <c r="S22" t="n">
-        <v>715.2483178236314</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T22" t="n">
-        <v>482.9645045527716</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U22" t="n">
-        <v>250.6806912819119</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V22" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W22" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X22" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="Y22" t="n">
-        <v>18.39687801105209</v>
+        <v>795.9429111851816</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>715.2483178236314</v>
+      </c>
+      <c r="C23" t="n">
+        <v>715.2483178236314</v>
+      </c>
+      <c r="D23" t="n">
+        <v>715.2483178236314</v>
+      </c>
+      <c r="E23" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="F23" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="G23" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="C23" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="D23" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="E23" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="F23" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="G23" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="H23" t="n">
         <v>18.39687801105209</v>
@@ -5996,13 +5998,13 @@
         <v>18.39687801105209</v>
       </c>
       <c r="M23" t="n">
-        <v>246.0582433978217</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N23" t="n">
-        <v>473.7196087845913</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O23" t="n">
-        <v>701.380974171361</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P23" t="n">
         <v>734.998340411656</v>
@@ -6011,28 +6013,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R23" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S23" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T23" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U23" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V23" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W23" t="n">
-        <v>687.5600872817448</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X23" t="n">
-        <v>482.9645045527716</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y23" t="n">
-        <v>482.9645045527716</v>
+        <v>715.2483178236314</v>
       </c>
     </row>
     <row r="24">
@@ -6042,25 +6044,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>562.3732218235405</v>
+        <v>310.256943801222</v>
       </c>
       <c r="C24" t="n">
-        <v>411.7189913836327</v>
+        <v>310.256943801222</v>
       </c>
       <c r="D24" t="n">
-        <v>281.630024005113</v>
+        <v>310.256943801222</v>
       </c>
       <c r="E24" t="n">
-        <v>192.2159381160087</v>
+        <v>310.256943801222</v>
       </c>
       <c r="F24" t="n">
-        <v>67.7841319991405</v>
+        <v>185.8251376843538</v>
       </c>
       <c r="G24" t="n">
-        <v>67.7841319991405</v>
+        <v>65.7653197562182</v>
       </c>
       <c r="H24" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I24" t="n">
         <v>18.39687801105209</v>
@@ -6072,19 +6074,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="L24" t="n">
-        <v>236.8598043922958</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M24" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="N24" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="O24" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="N24" t="n">
+      <c r="P24" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O24" t="n">
-        <v>919.8439005526046</v>
-      </c>
-      <c r="P24" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q24" t="n">
         <v>919.8439005526046</v>
@@ -6093,25 +6095,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S24" t="n">
-        <v>784.9132234524734</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T24" t="n">
-        <v>784.9132234524734</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U24" t="n">
-        <v>784.9132234524734</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="V24" t="n">
-        <v>562.3732218235405</v>
+        <v>310.256943801222</v>
       </c>
       <c r="W24" t="n">
-        <v>562.3732218235405</v>
+        <v>310.256943801222</v>
       </c>
       <c r="X24" t="n">
-        <v>562.3732218235405</v>
+        <v>310.256943801222</v>
       </c>
       <c r="Y24" t="n">
-        <v>562.3732218235405</v>
+        <v>310.256943801222</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>563.6590979143218</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C25" t="n">
-        <v>563.6590979143218</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D25" t="n">
-        <v>563.6590979143218</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E25" t="n">
-        <v>408.1002857735243</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F25" t="n">
-        <v>408.1002857735243</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G25" t="n">
-        <v>306.9698544124802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H25" t="n">
-        <v>151.4913033739742</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I25" t="n">
         <v>18.39687801105209</v>
@@ -6169,28 +6171,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R25" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S25" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T25" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U25" t="n">
-        <v>795.9429111851816</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V25" t="n">
-        <v>795.9429111851816</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W25" t="n">
-        <v>563.6590979143218</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X25" t="n">
-        <v>563.6590979143218</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.6590979143218</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C26" t="n">
-        <v>18.39687801105209</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D26" t="n">
-        <v>18.39687801105209</v>
+        <v>455.276274010885</v>
       </c>
       <c r="E26" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="F26" t="n">
-        <v>18.39687801105209</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="G26" t="n">
         <v>18.39687801105209</v>
@@ -6227,19 +6229,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K26" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L26" t="n">
-        <v>473.7196087845913</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M26" t="n">
-        <v>473.7196087845913</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N26" t="n">
+        <v>279.6756096381168</v>
+      </c>
+      <c r="O26" t="n">
         <v>507.3369750248864</v>
-      </c>
-      <c r="O26" t="n">
-        <v>734.998340411656</v>
       </c>
       <c r="P26" t="n">
         <v>734.998340411656</v>
@@ -6260,16 +6262,16 @@
         <v>919.8439005526046</v>
       </c>
       <c r="V26" t="n">
-        <v>715.2483178236314</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W26" t="n">
-        <v>482.9645045527716</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X26" t="n">
-        <v>250.6806912819119</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Y26" t="n">
-        <v>18.39687801105209</v>
+        <v>919.8439005526046</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>67.7841319991405</v>
+        <v>486.4953946594633</v>
       </c>
       <c r="C27" t="n">
-        <v>67.7841319991405</v>
+        <v>486.4953946594633</v>
       </c>
       <c r="D27" t="n">
-        <v>67.7841319991405</v>
+        <v>486.4953946594633</v>
       </c>
       <c r="E27" t="n">
-        <v>67.7841319991405</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F27" t="n">
-        <v>67.7841319991405</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G27" t="n">
-        <v>67.7841319991405</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H27" t="n">
         <v>67.7841319991405</v>
@@ -6306,49 +6308,49 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
-        <v>131.5118602307795</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L27" t="n">
-        <v>131.5118602307795</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M27" t="n">
-        <v>359.1732256175491</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N27" t="n">
-        <v>359.1732256175491</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O27" t="n">
-        <v>586.8345910043187</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P27" t="n">
-        <v>814.4959563910883</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q27" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R27" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S27" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T27" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U27" t="n">
-        <v>709.7807572312464</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V27" t="n">
-        <v>639.0047899568033</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="W27" t="n">
-        <v>408.8875440900902</v>
+        <v>665.8096115839561</v>
       </c>
       <c r="X27" t="n">
-        <v>219.5804664401018</v>
+        <v>665.8096115839561</v>
       </c>
       <c r="Y27" t="n">
-        <v>219.5804664401018</v>
+        <v>486.4953946594633</v>
       </c>
     </row>
     <row r="28">
@@ -6358,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C28" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D28" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E28" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F28" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G28" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H28" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I28" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J28" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K28" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L28" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M28" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N28" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O28" t="n">
         <v>796.5455384059751</v>
@@ -6415,19 +6417,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U28" t="n">
-        <v>919.8439005526046</v>
+        <v>706.0765657361283</v>
       </c>
       <c r="V28" t="n">
-        <v>869.5492612729486</v>
+        <v>706.0765657361283</v>
       </c>
       <c r="W28" t="n">
-        <v>637.2654480020888</v>
+        <v>473.7927524652685</v>
       </c>
       <c r="X28" t="n">
-        <v>404.981634731229</v>
+        <v>241.5089391944087</v>
       </c>
       <c r="Y28" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>250.6806912819119</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="C29" t="n">
-        <v>250.6806912819119</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="D29" t="n">
-        <v>250.6806912819119</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="E29" t="n">
-        <v>18.39687801105209</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="F29" t="n">
-        <v>18.39687801105209</v>
+        <v>417.283360296407</v>
       </c>
       <c r="G29" t="n">
-        <v>18.39687801105209</v>
+        <v>184.9995470255472</v>
       </c>
       <c r="H29" t="n">
-        <v>18.39687801105209</v>
+        <v>156.7339949185873</v>
       </c>
       <c r="I29" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J29" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K29" t="n">
-        <v>390.7080163066498</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L29" t="n">
-        <v>390.7080163066498</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M29" t="n">
-        <v>390.7080163066498</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N29" t="n">
-        <v>618.3693816934194</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O29" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P29" t="n">
         <v>919.8439005526046</v>
@@ -6485,28 +6487,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R29" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S29" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T29" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U29" t="n">
-        <v>715.2483178236314</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V29" t="n">
-        <v>715.2483178236314</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W29" t="n">
-        <v>715.2483178236314</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="X29" t="n">
-        <v>715.2483178236314</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="Y29" t="n">
-        <v>482.9645045527716</v>
+        <v>881.8509868381266</v>
       </c>
     </row>
     <row r="30">
@@ -6516,49 +6518,49 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C30" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D30" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E30" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F30" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G30" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H30" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I30" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J30" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K30" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L30" t="n">
-        <v>586.8345910043187</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M30" t="n">
-        <v>586.8345910043187</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N30" t="n">
-        <v>586.8345910043187</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="O30" t="n">
-        <v>586.8345910043187</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="P30" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q30" t="n">
         <v>919.8439005526046</v>
@@ -6579,13 +6581,13 @@
         <v>487.2407556023135</v>
       </c>
       <c r="W30" t="n">
-        <v>465.4484439766634</v>
+        <v>257.1235097356004</v>
       </c>
       <c r="X30" t="n">
-        <v>276.1413663266751</v>
+        <v>67.81643208561201</v>
       </c>
       <c r="Y30" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>18.39687801105209</v>
+        <v>331.375284643462</v>
       </c>
       <c r="C31" t="n">
-        <v>18.39687801105209</v>
+        <v>331.375284643462</v>
       </c>
       <c r="D31" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7421715459768</v>
       </c>
       <c r="E31" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7421715459768</v>
       </c>
       <c r="F31" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7421715459768</v>
       </c>
       <c r="G31" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7421715459768</v>
       </c>
       <c r="H31" t="n">
-        <v>18.39687801105209</v>
+        <v>20.26362050747073</v>
       </c>
       <c r="I31" t="n">
-        <v>18.39687801105209</v>
+        <v>20.26362050747073</v>
       </c>
       <c r="J31" t="n">
         <v>18.39687801105209</v>
@@ -6643,28 +6645,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R31" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S31" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T31" t="n">
-        <v>715.2483178236314</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U31" t="n">
-        <v>482.9645045527716</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="V31" t="n">
-        <v>250.6806912819119</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="W31" t="n">
-        <v>18.39687801105209</v>
+        <v>331.375284643462</v>
       </c>
       <c r="X31" t="n">
-        <v>18.39687801105209</v>
+        <v>331.375284643462</v>
       </c>
       <c r="Y31" t="n">
-        <v>18.39687801105209</v>
+        <v>331.375284643462</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>389.017808189447</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="C32" t="n">
-        <v>389.017808189447</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="D32" t="n">
-        <v>389.017808189447</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="E32" t="n">
-        <v>389.017808189447</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="F32" t="n">
-        <v>389.017808189447</v>
+        <v>621.3016214603068</v>
       </c>
       <c r="G32" t="n">
         <v>389.017808189447</v>
@@ -6701,22 +6703,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K32" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L32" t="n">
-        <v>473.7196087845913</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M32" t="n">
-        <v>507.3369750248864</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N32" t="n">
-        <v>734.998340411656</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O32" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P32" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q32" t="n">
         <v>919.8439005526046</v>
@@ -6725,25 +6727,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S32" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T32" t="n">
-        <v>529.8297430530719</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U32" t="n">
-        <v>389.017808189447</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V32" t="n">
-        <v>389.017808189447</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="W32" t="n">
-        <v>389.017808189447</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="X32" t="n">
-        <v>389.017808189447</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y32" t="n">
-        <v>389.017808189447</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="33">
@@ -6753,10 +6755,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>638.286639784475</v>
+        <v>768.3756071629947</v>
       </c>
       <c r="C33" t="n">
-        <v>487.6324093445672</v>
+        <v>617.7213767230869</v>
       </c>
       <c r="D33" t="n">
         <v>487.6324093445672</v>
@@ -6789,13 +6791,13 @@
         <v>464.5211697790654</v>
       </c>
       <c r="N33" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="O33" t="n">
+        <v>464.5211697790654</v>
+      </c>
+      <c r="P33" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="O33" t="n">
-        <v>692.182535165835</v>
-      </c>
-      <c r="P33" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="Q33" t="n">
         <v>919.8439005526046</v>
@@ -6804,25 +6806,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S33" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T33" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U33" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V33" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W33" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="X33" t="n">
-        <v>790.0829742254364</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.0829742254364</v>
+        <v>784.9132234524734</v>
       </c>
     </row>
     <row r="34">
@@ -6832,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>18.39687801105209</v>
+        <v>502.3520685904435</v>
       </c>
       <c r="C34" t="n">
-        <v>18.39687801105209</v>
+        <v>332.1469506564328</v>
       </c>
       <c r="D34" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="E34" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="F34" t="n">
-        <v>18.39687801105209</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G34" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="H34" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="I34" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="J34" t="n">
-        <v>18.39687801105209</v>
+        <v>18.39687801105208</v>
       </c>
       <c r="K34" t="n">
-        <v>100.231919120994</v>
+        <v>100.2319191209939</v>
       </c>
       <c r="L34" t="n">
-        <v>264.3595589947938</v>
+        <v>264.3595589947937</v>
       </c>
       <c r="M34" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N34" t="n">
-        <v>633.8407713642671</v>
+        <v>633.840771364267</v>
       </c>
       <c r="O34" t="n">
         <v>796.5455384059751</v>
@@ -6889,19 +6891,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="U34" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V34" t="n">
         <v>687.5600872817448</v>
       </c>
       <c r="W34" t="n">
-        <v>455.276274010885</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X34" t="n">
-        <v>222.9924607400252</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.6048967023534</v>
+        <v>687.5600872817448</v>
       </c>
     </row>
     <row r="35">
@@ -6914,16 +6916,16 @@
         <v>482.9645045527716</v>
       </c>
       <c r="C35" t="n">
-        <v>250.6806912819119</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D35" t="n">
         <v>250.6806912819119</v>
       </c>
       <c r="E35" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F35" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="G35" t="n">
         <v>18.39687801105209</v>
@@ -6935,52 +6937,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J35" t="n">
-        <v>163.0466509198802</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K35" t="n">
-        <v>163.0466509198802</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L35" t="n">
-        <v>163.0466509198802</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M35" t="n">
-        <v>163.0466509198802</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N35" t="n">
-        <v>279.6756096381168</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O35" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P35" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q35" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R35" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S35" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T35" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U35" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V35" t="n">
-        <v>881.8509868381266</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W35" t="n">
-        <v>881.8509868381266</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X35" t="n">
-        <v>881.8509868381266</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y35" t="n">
-        <v>715.2483178236314</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>760.996180350538</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C36" t="n">
-        <v>667.1086307111752</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D36" t="n">
-        <v>537.0196633326556</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E36" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F36" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G36" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H36" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I36" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J36" t="n">
-        <v>131.5118602307795</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K36" t="n">
-        <v>359.1732256175491</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L36" t="n">
-        <v>586.8345910043187</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="M36" t="n">
-        <v>586.8345910043187</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N36" t="n">
-        <v>586.8345910043187</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O36" t="n">
-        <v>586.8345910043187</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P36" t="n">
-        <v>814.4959563910883</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q36" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R36" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S36" t="n">
-        <v>760.996180350538</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T36" t="n">
-        <v>760.996180350538</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U36" t="n">
-        <v>760.996180350538</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="V36" t="n">
-        <v>760.996180350538</v>
+        <v>538.8145070264945</v>
       </c>
       <c r="W36" t="n">
-        <v>760.996180350538</v>
+        <v>538.8145070264945</v>
       </c>
       <c r="X36" t="n">
-        <v>760.996180350538</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="Y36" t="n">
-        <v>760.996180350538</v>
+        <v>170.1932124520134</v>
       </c>
     </row>
     <row r="37">
@@ -7102,7 +7104,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M37" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N37" t="n">
         <v>633.8407713642671</v>
@@ -7117,22 +7119,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S37" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T37" t="n">
-        <v>715.2483178236314</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="U37" t="n">
-        <v>482.9645045527716</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="V37" t="n">
-        <v>250.6806912819119</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="W37" t="n">
-        <v>18.39687801105209</v>
+        <v>128.5592008260114</v>
       </c>
       <c r="X37" t="n">
         <v>18.39687801105209</v>
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C38" t="n">
         <v>250.6806912819119</v>
       </c>
       <c r="D38" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E38" t="n">
         <v>18.39687801105209</v>
@@ -7175,49 +7177,49 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K38" t="n">
-        <v>18.39687801105209</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="L38" t="n">
-        <v>18.39687801105209</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="M38" t="n">
-        <v>52.01424425134721</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="N38" t="n">
-        <v>279.6756096381168</v>
+        <v>701.380974171361</v>
       </c>
       <c r="O38" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P38" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q38" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="T38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="U38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="V38" t="n">
-        <v>919.8439005526046</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="W38" t="n">
-        <v>687.5600872817448</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="X38" t="n">
-        <v>687.5600872817448</v>
+        <v>649.5671735672668</v>
       </c>
       <c r="Y38" t="n">
-        <v>482.9645045527716</v>
+        <v>417.283360296407</v>
       </c>
     </row>
     <row r="39">
@@ -7227,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.8862699082292</v>
+        <v>665.8096115839561</v>
       </c>
       <c r="C39" t="n">
-        <v>176.8862699082292</v>
+        <v>515.1553811440483</v>
       </c>
       <c r="D39" t="n">
-        <v>46.79730252970955</v>
+        <v>515.1553811440483</v>
       </c>
       <c r="E39" t="n">
-        <v>46.79730252970955</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F39" t="n">
-        <v>46.79730252970955</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G39" t="n">
-        <v>46.79730252970955</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H39" t="n">
-        <v>46.79730252970955</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I39" t="n">
         <v>18.39687801105209</v>
@@ -7254,49 +7256,49 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K39" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L39" t="n">
         <v>246.0582433978217</v>
       </c>
       <c r="M39" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="N39" t="n">
+        <v>246.0582433978217</v>
+      </c>
+      <c r="O39" t="n">
         <v>473.7196087845913</v>
       </c>
-      <c r="N39" t="n">
-        <v>692.182535165835</v>
-      </c>
-      <c r="O39" t="n">
-        <v>692.182535165835</v>
-      </c>
       <c r="P39" t="n">
-        <v>692.182535165835</v>
+        <v>701.380974171361</v>
       </c>
       <c r="Q39" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R39" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S39" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T39" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U39" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V39" t="n">
-        <v>697.3038989236717</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="W39" t="n">
-        <v>697.3038989236717</v>
+        <v>665.8096115839561</v>
       </c>
       <c r="X39" t="n">
-        <v>507.9968212736833</v>
+        <v>665.8096115839561</v>
       </c>
       <c r="Y39" t="n">
-        <v>328.6826043491906</v>
+        <v>665.8096115839561</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>593.126827367731</v>
+        <v>270.0682553195837</v>
       </c>
       <c r="C40" t="n">
-        <v>593.126827367731</v>
+        <v>270.0682553195837</v>
       </c>
       <c r="D40" t="n">
-        <v>593.126827367731</v>
+        <v>270.0682553195837</v>
       </c>
       <c r="E40" t="n">
-        <v>593.126827367731</v>
+        <v>270.0682553195837</v>
       </c>
       <c r="F40" t="n">
-        <v>505.6021784869328</v>
+        <v>270.0682553195837</v>
       </c>
       <c r="G40" t="n">
-        <v>337.3481245863783</v>
+        <v>270.0682553195837</v>
       </c>
       <c r="H40" t="n">
         <v>181.8695735478723</v>
@@ -7354,28 +7356,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R40" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S40" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T40" t="n">
-        <v>593.126827367731</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U40" t="n">
-        <v>593.126827367731</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V40" t="n">
-        <v>593.126827367731</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W40" t="n">
-        <v>593.126827367731</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X40" t="n">
-        <v>593.126827367731</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y40" t="n">
-        <v>593.126827367731</v>
+        <v>455.276274010885</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>288.7627189519355</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C41" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D41" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E41" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F41" t="n">
-        <v>56.47890568107576</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G41" t="n">
         <v>18.39687801105209</v>
@@ -7412,16 +7414,16 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K41" t="n">
-        <v>390.7080163066498</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L41" t="n">
         <v>464.5211697790654</v>
       </c>
       <c r="M41" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N41" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O41" t="n">
         <v>692.182535165835</v>
@@ -7436,25 +7438,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S41" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T41" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U41" t="n">
-        <v>753.3303454936552</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V41" t="n">
-        <v>753.3303454936552</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W41" t="n">
-        <v>521.0465322227953</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X41" t="n">
-        <v>288.7627189519355</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y41" t="n">
-        <v>288.7627189519355</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="42">
@@ -7464,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>328.3930354002468</v>
+        <v>266.4393906126095</v>
       </c>
       <c r="C42" t="n">
-        <v>328.3930354002468</v>
+        <v>115.7851601727018</v>
       </c>
       <c r="D42" t="n">
-        <v>328.3930354002468</v>
+        <v>115.7851601727018</v>
       </c>
       <c r="E42" t="n">
-        <v>191.9465445111346</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F42" t="n">
-        <v>67.51473839426636</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G42" t="n">
         <v>18.39687801105209</v>
@@ -7497,16 +7499,16 @@
         <v>236.8598043922958</v>
       </c>
       <c r="M42" t="n">
-        <v>236.8598043922958</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N42" t="n">
-        <v>236.8598043922958</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O42" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P42" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q42" t="n">
         <v>919.8439005526046</v>
@@ -7515,25 +7517,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S42" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T42" t="n">
-        <v>760.996180350538</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U42" t="n">
-        <v>550.9330370291798</v>
+        <v>685.863714129311</v>
       </c>
       <c r="V42" t="n">
-        <v>328.3930354002468</v>
+        <v>685.863714129311</v>
       </c>
       <c r="W42" t="n">
-        <v>328.3930354002468</v>
+        <v>455.7464682625979</v>
       </c>
       <c r="X42" t="n">
-        <v>328.3930354002468</v>
+        <v>266.4393906126095</v>
       </c>
       <c r="Y42" t="n">
-        <v>328.3930354002468</v>
+        <v>266.4393906126095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>186.6509319116065</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="C43" t="n">
-        <v>186.6509319116065</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="D43" t="n">
-        <v>186.6509319116065</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="E43" t="n">
-        <v>186.6509319116065</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F43" t="n">
-        <v>186.6509319116065</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G43" t="n">
         <v>18.39687801105209</v>
@@ -7576,7 +7578,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M43" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N43" t="n">
         <v>633.8407713642671</v>
@@ -7591,28 +7593,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R43" t="n">
-        <v>844.8628901832735</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S43" t="n">
-        <v>642.0468063658229</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T43" t="n">
-        <v>642.0468063658229</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U43" t="n">
-        <v>409.7629930949632</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V43" t="n">
-        <v>409.7629930949632</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W43" t="n">
-        <v>409.7629930949632</v>
+        <v>455.276274010885</v>
       </c>
       <c r="X43" t="n">
-        <v>409.7629930949632</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="Y43" t="n">
-        <v>186.6509319116065</v>
+        <v>222.9924607400252</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>246.0582433978217</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>473.7196087845913</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>701.380974171361</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>680.0781907635957</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>529.4239603236879</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>399.3349929451682</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>455.276274010885</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>222.9924607400252</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
   </sheetData>
@@ -9401,10 +9403,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L20" t="n">
-        <v>153.2481697304917</v>
+        <v>271.0551987388116</v>
       </c>
       <c r="M20" t="n">
         <v>379.6860267358784</v>
@@ -9413,13 +9415,13 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O20" t="n">
-        <v>224.1225783053243</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P20" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9480,25 +9482,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L21" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M21" t="n">
-        <v>198.7991868589244</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P21" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q21" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9644,7 +9646,7 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M23" t="n">
-        <v>379.6860267358784</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N23" t="n">
         <v>379.0794664759352</v>
@@ -9653,7 +9655,7 @@
         <v>379.5248125622476</v>
       </c>
       <c r="P23" t="n">
-        <v>184.2583828371828</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q23" t="n">
         <v>331.2113854294513</v>
@@ -9720,22 +9722,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>310.7299694642351</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M24" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>322.6485340270401</v>
+        <v>313.3571814962058</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9875,22 +9877,22 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K26" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L26" t="n">
-        <v>383.2091448686429</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M26" t="n">
-        <v>149.7250515977273</v>
+        <v>183.681987193985</v>
       </c>
       <c r="N26" t="n">
-        <v>183.0754269340418</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O26" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P26" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
@@ -9954,10 +9956,10 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M27" t="n">
         <v>322.3480971874631</v>
@@ -9966,13 +9968,13 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>317.0443399574658</v>
       </c>
       <c r="Q27" t="n">
-        <v>197.4002179655265</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10109,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K29" t="n">
-        <v>373.0193783173885</v>
+        <v>363.7280257865542</v>
       </c>
       <c r="L29" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M29" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N29" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O29" t="n">
-        <v>224.1225783053243</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P29" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
         <v>144.4986984183922</v>
@@ -10188,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L30" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P30" t="n">
-        <v>193.4954296289271</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q30" t="n">
-        <v>320.9491282940651</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10349,25 +10351,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K32" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L32" t="n">
-        <v>383.2091448686429</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M32" t="n">
-        <v>183.6819871939849</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N32" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O32" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10437,7 +10439,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>92.68755888888889</v>
@@ -10446,7 +10448,7 @@
         <v>317.0443399574658</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K35" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L35" t="n">
-        <v>153.2481697304917</v>
+        <v>373.9177923378086</v>
       </c>
       <c r="M35" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N35" t="n">
-        <v>266.925520346104</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O35" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P35" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q35" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R35" t="n">
         <v>102.5176150018526</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K36" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L36" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O36" t="n">
-        <v>92.68755888888889</v>
+        <v>313.3571814962057</v>
       </c>
       <c r="P36" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>197.4002179655265</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10823,25 +10825,25 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L38" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M38" t="n">
-        <v>183.681987193985</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N38" t="n">
         <v>379.0794664759352</v>
       </c>
       <c r="O38" t="n">
-        <v>379.5248125622476</v>
+        <v>370.2334600314132</v>
       </c>
       <c r="P38" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10902,25 +10904,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>306.0417354614835</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q39" t="n">
-        <v>320.9491282940651</v>
+        <v>311.6577757632308</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11060,19 +11062,19 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>373.0193783173885</v>
+        <v>217.6171440604653</v>
       </c>
       <c r="L41" t="n">
-        <v>227.8069106117196</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M41" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N41" t="n">
         <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P41" t="n">
         <v>380.2624223790764</v>
@@ -11145,19 +11147,19 @@
         <v>310.7299694642351</v>
       </c>
       <c r="M42" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O42" t="n">
         <v>322.6485340270401</v>
       </c>
       <c r="P42" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11221,7 +11223,7 @@
         <v>166.520275497658</v>
       </c>
       <c r="L43" t="n">
-        <v>253.460534404825</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M43" t="n">
         <v>278.4750710187352</v>
@@ -11303,19 +11305,19 @@
         <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>149.7250515977273</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N44" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O44" t="n">
-        <v>149.5638374240964</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>184.2583828371828</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11373,16 +11375,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N45" t="n">
         <v>85.37211285416666</v>
@@ -11391,7 +11393,7 @@
         <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q45" t="n">
         <v>90.98815315591399</v>
@@ -11455,25 +11457,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K46" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L46" t="n">
-        <v>87.67503958280489</v>
+        <v>253.4605344048249</v>
       </c>
       <c r="M46" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N46" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O46" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P46" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q46" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>215.6117254357748</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -23978,16 +23980,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>182.7645189471708</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>315.9356757411953</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H20" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,10 +24019,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T20" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.1952022697474</v>
@@ -24035,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24050,7 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D21" t="n">
         <v>128.7880777047345</v>
@@ -24060,13 +24062,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H21" t="n">
         <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>9.717420257813352</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24099,19 +24101,19 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>207.9625118881446</v>
+        <v>165.2890644792332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>154.0032240193895</v>
@@ -24139,10 +24141,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>56.66049327285097</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24175,16 +24177,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>120.9002755513414</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
         <v>280.4970980481341</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
@@ -24212,7 +24214,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F23" t="n">
         <v>412.725494085322</v>
@@ -24221,7 +24223,7 @@
         <v>179.0701528187257</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24251,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
@@ -24260,16 +24262,16 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>88.25855994539717</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>183.0084521145903</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -24285,25 +24287,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>46.56208095000791</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>87.41444223540508</v>
+        <v>40.51968490769063</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24370,19 +24372,19 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>66.45238631411527</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
         <v>30.07448747215907</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>200.7879229792761</v>
@@ -24418,16 +24420,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W25" t="n">
-        <v>50.53612290998299</v>
+        <v>77.94747114645074</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y25" t="n">
         <v>220.8809405715231</v>
@@ -24440,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F26" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>206.4815010551934</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24500,16 +24502,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>136.1361143018333</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -24528,16 +24530,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>135.0820259802211</v>
+        <v>50.01902598646031</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
@@ -24576,19 +24578,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
-        <v>150.2463940109449</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y27" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24619,10 +24621,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24655,10 +24657,10 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>70.95474237220648</v>
       </c>
       <c r="V28" t="n">
-        <v>213.5278588405245</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>50.53612290998299</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E29" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>292.8593233432839</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -24734,7 +24736,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>50.64557536806387</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
         <v>338.6857412035168</v>
@@ -24746,7 +24748,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="30">
@@ -24771,13 +24773,13 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24819,13 +24821,13 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>206.2416848986525</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>177.5210747552478</v>
+        <v>128.5957162214335</v>
       </c>
     </row>
     <row r="31">
@@ -24841,7 +24843,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>154.0032240193895</v>
@@ -24853,13 +24855,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>30.07448747215907</v>
+        <v>28.22641240070461</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T31" t="n">
-        <v>30.81223441176471</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V31" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
         <v>50.53612290998299</v>
@@ -24926,10 +24928,10 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>347.1296129220984</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H32" t="n">
         <v>90.88124479102308</v>
@@ -24965,13 +24967,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>113.7913867547588</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -24980,7 +24982,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>133.9061309699678</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25044,7 +25046,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>175.2139736830806</v>
@@ -25059,7 +25061,7 @@
         <v>227.816073408046</v>
       </c>
       <c r="X33" t="n">
-        <v>58.95068980959189</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
         <v>177.5210747552478</v>
@@ -25075,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>10.03572340913246</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
@@ -25087,7 +25089,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>153.923765528121</v>
@@ -25129,19 +25131,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V34" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>201.6872521742279</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>151.6257423573478</v>
       </c>
       <c r="E35" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>179.0701528187257</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25199,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
         <v>164.8484195083599</v>
@@ -25211,16 +25213,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>136.1361143018333</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y35" t="n">
-        <v>227.5891596642547</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25230,28 +25232,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>56.19901399253958</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25278,28 +25280,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T36" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>207.9625118881446</v>
       </c>
       <c r="V36" t="n">
-        <v>220.3146016126436</v>
+        <v>18.30947570487527</v>
       </c>
       <c r="W36" t="n">
         <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>30.81223441176471</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U37" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V37" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>122.678819408037</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25388,16 +25390,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>231.5531559299328</v>
       </c>
       <c r="C38" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
@@ -25451,13 +25453,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>385.5580790162737</v>
+        <v>155.5971038781226</v>
       </c>
       <c r="Y38" t="n">
-        <v>189.9761750869214</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>135.0820259802211</v>
+        <v>21.64563936672118</v>
       </c>
       <c r="F39" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>20.77696117473663</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>133.5813703291298</v>
@@ -25527,16 +25529,16 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25558,13 +25560,13 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>69.10327304716648</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>66.60707057412662</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
@@ -25612,7 +25614,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25628,7 +25630,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C41" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25640,7 +25642,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
-        <v>371.3299205635534</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
         <v>320.8422199291742</v>
@@ -25676,7 +25678,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
@@ -25685,7 +25687,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W41" t="n">
         <v>137.3280695432443</v>
@@ -25694,7 +25696,7 @@
         <v>155.5971038781226</v>
       </c>
       <c r="Y41" t="n">
-        <v>392.5258019886049</v>
+        <v>189.9761750869215</v>
       </c>
     </row>
     <row r="42">
@@ -25707,19 +25709,19 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>38.66762664018799</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>70.23253796947208</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
         <v>87.41444223540508</v>
@@ -25755,7 +25757,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
         <v>175.2139736830806</v>
@@ -25764,13 +25766,13 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -25792,13 +25794,13 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>107.2062725568629</v>
       </c>
       <c r="F43" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H43" t="n">
         <v>153.923765528121</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.43077920811102</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25865,7 +25867,7 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
@@ -25913,7 +25915,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>221.2655964161775</v>
@@ -25922,16 +25924,16 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>338.6857412035168</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>347.8568716229503</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>150.2783710965517</v>
+        <v>46.49168873456277</v>
       </c>
       <c r="C45" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>87.41444223540508</v>
@@ -25992,7 +25994,7 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>175.2139736830806</v>
@@ -26077,16 +26079,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>29.18989209316331</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435107.4383510918</v>
+        <v>435107.4383510919</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435107.4383510919</v>
+        <v>435107.4383510917</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>435107.4383510918</v>
+        <v>435107.4383510919</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435107.4383510916</v>
+        <v>435107.4383510918</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>435107.4383510918</v>
+        <v>435107.438351092</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435107.4383510919</v>
+        <v>435107.4383510918</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>232951.5378089735</v>
+        <v>435107.4383510916</v>
       </c>
     </row>
   </sheetData>
@@ -26335,25 +26337,25 @@
         <v>77161.27852224627</v>
       </c>
       <c r="J2" t="n">
+        <v>77161.27852224624</v>
+      </c>
+      <c r="K2" t="n">
+        <v>77161.27852224624</v>
+      </c>
+      <c r="L2" t="n">
+        <v>77161.27852224624</v>
+      </c>
+      <c r="M2" t="n">
+        <v>77161.27852224626</v>
+      </c>
+      <c r="N2" t="n">
+        <v>77161.27852224626</v>
+      </c>
+      <c r="O2" t="n">
         <v>77161.27852224627</v>
       </c>
-      <c r="K2" t="n">
-        <v>77161.27852224627</v>
-      </c>
-      <c r="L2" t="n">
-        <v>77161.27852224623</v>
-      </c>
-      <c r="M2" t="n">
-        <v>77161.27852224627</v>
-      </c>
-      <c r="N2" t="n">
-        <v>77161.27852224628</v>
-      </c>
-      <c r="O2" t="n">
-        <v>77161.27852224626</v>
-      </c>
       <c r="P2" t="n">
-        <v>41330.11154675335</v>
+        <v>77161.27852224624</v>
       </c>
     </row>
     <row r="3">
@@ -26405,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>54356.79553730534</v>
       </c>
     </row>
     <row r="4">
@@ -26457,7 +26459,7 @@
         <v>21441.81001251515</v>
       </c>
       <c r="P4" t="n">
-        <v>11271.84860366</v>
+        <v>21441.81001251515</v>
       </c>
     </row>
     <row r="5">
@@ -26509,7 +26511,7 @@
         <v>13981.62728839959</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
     </row>
     <row r="6">
@@ -26534,34 +26536,34 @@
         <v>30058.26294309334</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309335</v>
+        <v>30058.26294309334</v>
       </c>
       <c r="H6" t="n">
         <v>-20307.69951971793</v>
       </c>
       <c r="I6" t="n">
+        <v>41737.84122133153</v>
+      </c>
+      <c r="J6" t="n">
+        <v>41737.8412213315</v>
+      </c>
+      <c r="K6" t="n">
+        <v>41737.8412213315</v>
+      </c>
+      <c r="L6" t="n">
+        <v>41737.8412213315</v>
+      </c>
+      <c r="M6" t="n">
+        <v>41737.84122133151</v>
+      </c>
+      <c r="N6" t="n">
         <v>41737.84122133152</v>
       </c>
-      <c r="J6" t="n">
+      <c r="O6" t="n">
         <v>41737.84122133152</v>
       </c>
-      <c r="K6" t="n">
-        <v>41737.84122133152</v>
-      </c>
-      <c r="L6" t="n">
-        <v>41737.84122133148</v>
-      </c>
-      <c r="M6" t="n">
-        <v>41737.84122133152</v>
-      </c>
-      <c r="N6" t="n">
-        <v>41737.84122133154</v>
-      </c>
-      <c r="O6" t="n">
-        <v>41737.84122133151</v>
-      </c>
       <c r="P6" t="n">
-        <v>30058.26294309335</v>
+        <v>-12618.95431597384</v>
       </c>
     </row>
   </sheetData>
@@ -26829,7 +26831,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -27051,7 +27053,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
     </row>
   </sheetData>
@@ -36121,10 +36123,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="M20" t="n">
         <v>229.9609751381512</v>
@@ -36133,13 +36135,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O20" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L21" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>106.4120648096125</v>
       </c>
-      <c r="N21" t="n">
+      <c r="P21" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
       <c r="Q21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36294,7 +36296,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>121.0870361379581</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36364,7 +36366,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>229.9609751381512</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="N23" t="n">
         <v>229.9609751381512</v>
@@ -36373,7 +36375,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="P23" t="n">
-        <v>33.95693559625762</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q23" t="n">
         <v>186.7126870110591</v>
@@ -36440,22 +36442,22 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
+        <v>229.9609751381512</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>220.6696226073169</v>
       </c>
-      <c r="M24" t="n">
+      <c r="P24" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N24" t="n">
+      <c r="Q24" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="O24" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,22 +36597,22 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>33.95693559625769</v>
+      </c>
+      <c r="N26" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L26" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>33.95693559625767</v>
       </c>
       <c r="O26" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
@@ -36674,10 +36676,10 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M27" t="n">
         <v>229.9609751381512</v>
@@ -36686,13 +36688,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q27" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36768,7 +36770,7 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P28" t="n">
-        <v>121.0870361379581</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q28" t="n">
         <v>3.456764010152483</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="L29" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N29" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O29" t="n">
-        <v>74.55874088122788</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q30" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37010,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.456764010152483</v>
+        <v>3.456764010152508</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,25 +37071,25 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>220.6696226073169</v>
+      </c>
+      <c r="M32" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L32" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="M32" t="n">
-        <v>33.95693559625767</v>
       </c>
       <c r="N32" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,7 +37229,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>220.6696226073169</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N35" t="n">
-        <v>117.8070290083198</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="P36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>106.4120648096125</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37543,25 +37545,25 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M38" t="n">
-        <v>33.95693559625769</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O38" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="P38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N39" t="n">
-        <v>220.6696226073169</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q39" t="n">
-        <v>229.9609751381512</v>
+        <v>220.6696226073168</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
+        <v>74.55874088122788</v>
+      </c>
+      <c r="L41" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="L41" t="n">
-        <v>74.55874088122788</v>
-      </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>229.9609751381512</v>
@@ -37865,19 +37867,19 @@
         <v>220.6696226073169</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O42" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P42" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37941,7 +37943,7 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.7854948220201</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
         <v>188.1733114527919</v>
@@ -38023,19 +38025,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>33.95693559625762</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,16 +38095,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38177,25 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_11.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>163312.6313477618</v>
+        <v>152371.3550343742</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12396667.49869666</v>
+        <v>12064315.81866871</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18482261.477815</v>
+        <v>18156523.59621961</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3929082.744251658</v>
+        <v>4095240.158698573</v>
       </c>
     </row>
     <row r="11">
@@ -1846,16 +1846,16 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>8.78360153796395</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>117.4051823798612</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2055,13 +2055,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>111.8623067117753</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,20 +2080,20 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>211.2450056236571</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C20" t="n">
-        <v>173.6320210463239</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T21" t="n">
-        <v>175.2139736830806</v>
+        <v>79.08012240725671</v>
       </c>
       <c r="U21" t="n">
-        <v>42.67344740891135</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V21" t="n">
         <v>220.3146016126436</v>
@@ -2228,7 +2228,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>154.0767819665104</v>
@@ -2253,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>97.26327225526998</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>155.7718405995755</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,56 +2326,56 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
       <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U23" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="H23" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>37.61298457733328</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>164.9366423243502</v>
-      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>211.2450056236571</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F24" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G24" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>46.89475732771444</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T24" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>72.36753101429152</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="U25" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>229.9609751381512</v>
+        <v>104.2314740826849</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -2554,65 +2554,65 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
-      <c r="D26" t="n">
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T26" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U26" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E26" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>202.5496269016834</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>46.39658611529719</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2642,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>85.06299999376084</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>227.816073408046</v>
+        <v>181.4566208931122</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2718,19 +2718,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>77.80582619021615</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>211.6296614683116</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2806,13 +2806,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="G29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>27.98289658589032</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,16 +2842,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>8.78360153796395</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2924,7 +2924,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U30" t="n">
         <v>207.9625118881446</v>
@@ -2936,10 +2936,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X30" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>48.92535853381431</v>
+        <v>61.12539172422213</v>
       </c>
     </row>
     <row r="31">
@@ -2949,16 +2949,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>57.62643744892199</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,13 +2967,13 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.848075071454455</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V31" t="n">
-        <v>0</v>
-      </c>
       <c r="W31" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="X31" t="n">
-        <v>0</v>
-      </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3037,10 +3037,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="F32" t="n">
-        <v>65.59588116322361</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>229.9609751381512</v>
@@ -3049,7 +3049,7 @@
         <v>229.9609751381512</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>37.70120739332342</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>16.37224012658392</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C33" t="n">
         <v>149.1476881355087</v>
       </c>
       <c r="D33" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>135.0820259802211</v>
@@ -3122,10 +3122,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G33" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S33" t="n">
         <v>133.5813703291298</v>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>177.4777360481099</v>
       </c>
     </row>
     <row r="34">
@@ -3186,25 +3186,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>144.0410585573779</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>63.56164337541038</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,67 +3271,67 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>164.8484195083599</v>
+      </c>
+      <c r="T35" t="n">
+        <v>221.2655964161775</v>
+      </c>
+      <c r="U35" t="n">
+        <v>46.39658611529722</v>
+      </c>
+      <c r="V35" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>202.5496269016835</v>
-      </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>61.12539172422213</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3401,19 +3401,19 @@
         <v>175.2139736830806</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V36" t="n">
-        <v>202.0051259077684</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X36" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3432,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>77.71945504116887</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X37" t="n">
-        <v>109.0606995868097</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>164.9366423243501</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>202.5496269016835</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,10 +3568,10 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>113.4363866135</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F39" t="n">
         <v>123.1874880556995</v>
@@ -3599,10 +3599,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H39" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>28.98739976390375</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>87.31669495399433</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="X40" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>1.761703922407231</v>
       </c>
     </row>
     <row r="41">
@@ -3739,10 +3739,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>37.70120739332352</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="W41" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="X41" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>202.5496269016834</v>
       </c>
     </row>
     <row r="42">
@@ -3821,25 +3821,25 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>96.41439934003316</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W42" t="n">
-        <v>227.816073408046</v>
+        <v>1.422150235059993</v>
       </c>
       <c r="X42" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>137.4348246626609</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>46.79695146252663</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
         <v>155.7526754391568</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3979,16 +3979,16 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4030,22 +4030,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>229.9609751381512</v>
+        <v>46.39658611529722</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>37.70120739332346</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4055,7 +4055,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>103.786682361989</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>149.1476881355087</v>
@@ -4064,7 +4064,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E45" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>123.1874880556995</v>
@@ -4103,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S45" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4115,10 +4115,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>120.9561325923781</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>29.26577526641465</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="W46" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>202.5496269016834</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>881.8509868381266</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>491.8368293385938</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>279.2751750170326</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>397.8662683300237</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>397.8662683300237</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>342.2840450090918</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>342.2840450090918</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>186.6509319116065</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>796.5455384059751</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>916.4217041825536</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>806.8516715508114</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>574.5678582799516</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>342.2840450090918</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>342.2840450090918</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>342.2840450090918</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>342.2840450090918</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>193.7827578558237</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="C20" t="n">
-        <v>18.39687801105209</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="D20" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E20" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F20" t="n">
         <v>18.39687801105209</v>
@@ -5755,19 +5755,19 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K20" t="n">
-        <v>163.0466509198802</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L20" t="n">
-        <v>279.6756096381168</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M20" t="n">
+        <v>390.7080163066498</v>
+      </c>
+      <c r="N20" t="n">
+        <v>390.7080163066498</v>
+      </c>
+      <c r="O20" t="n">
         <v>507.3369750248864</v>
-      </c>
-      <c r="N20" t="n">
-        <v>734.998340411656</v>
-      </c>
-      <c r="O20" t="n">
-        <v>734.998340411656</v>
       </c>
       <c r="P20" t="n">
         <v>734.998340411656</v>
@@ -5776,28 +5776,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R20" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S20" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T20" t="n">
-        <v>658.3503843975433</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U20" t="n">
-        <v>658.3503843975433</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="V20" t="n">
-        <v>658.3503843975433</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="W20" t="n">
-        <v>658.3503843975433</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="X20" t="n">
-        <v>658.3503843975433</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="Y20" t="n">
-        <v>426.0665711266835</v>
+        <v>464.0594848411615</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C21" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D21" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E21" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F21" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G21" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H21" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I21" t="n">
         <v>18.39687801105209</v>
@@ -5834,16 +5834,16 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K21" t="n">
+        <v>131.5118602307795</v>
+      </c>
+      <c r="L21" t="n">
         <v>359.1732256175491</v>
       </c>
-      <c r="L21" t="n">
-        <v>586.8345910043187</v>
-      </c>
       <c r="M21" t="n">
-        <v>586.8345910043187</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N21" t="n">
-        <v>586.8345910043187</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="O21" t="n">
         <v>692.182535165835</v>
@@ -5855,28 +5855,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R21" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S21" t="n">
-        <v>919.8439005526046</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T21" t="n">
-        <v>742.8600887515131</v>
+        <v>681.1172688280565</v>
       </c>
       <c r="U21" t="n">
-        <v>699.7555964192794</v>
+        <v>471.0541255066982</v>
       </c>
       <c r="V21" t="n">
-        <v>477.2155947903464</v>
+        <v>248.5141238777652</v>
       </c>
       <c r="W21" t="n">
-        <v>247.0983489236333</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="X21" t="n">
-        <v>247.0983489236333</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="Y21" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>610.7348924938804</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="C22" t="n">
-        <v>440.5297745598696</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="D22" t="n">
-        <v>284.8966614623843</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E22" t="n">
-        <v>284.8966614623843</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F22" t="n">
-        <v>284.8966614623843</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G22" t="n">
-        <v>116.6426075618299</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H22" t="n">
         <v>18.39687801105209</v>
@@ -5943,19 +5943,19 @@
         <v>795.9429111851816</v>
       </c>
       <c r="U22" t="n">
-        <v>795.9429111851816</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="V22" t="n">
-        <v>795.9429111851816</v>
+        <v>406.3138043793971</v>
       </c>
       <c r="W22" t="n">
-        <v>795.9429111851816</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="X22" t="n">
-        <v>795.9429111851816</v>
+        <v>174.0299911085373</v>
       </c>
       <c r="Y22" t="n">
-        <v>795.9429111851816</v>
+        <v>174.0299911085373</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C23" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D23" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E23" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F23" t="n">
-        <v>482.9645045527716</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G23" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H23" t="n">
         <v>18.39687801105209</v>
@@ -5989,52 +5989,52 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J23" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K23" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L23" t="n">
-        <v>18.39687801105209</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M23" t="n">
-        <v>52.01424425134721</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N23" t="n">
-        <v>279.6756096381168</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O23" t="n">
-        <v>507.3369750248864</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P23" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q23" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R23" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S23" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T23" t="n">
-        <v>881.8509868381266</v>
+        <v>696.3432981120213</v>
       </c>
       <c r="U23" t="n">
-        <v>715.2483178236314</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="V23" t="n">
-        <v>715.2483178236314</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="W23" t="n">
-        <v>715.2483178236314</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="X23" t="n">
-        <v>715.2483178236314</v>
+        <v>464.0594848411615</v>
       </c>
       <c r="Y23" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>310.256943801222</v>
+        <v>560.01837283546</v>
       </c>
       <c r="C24" t="n">
-        <v>310.256943801222</v>
+        <v>409.3641423955522</v>
       </c>
       <c r="D24" t="n">
-        <v>310.256943801222</v>
+        <v>279.2751750170326</v>
       </c>
       <c r="E24" t="n">
-        <v>310.256943801222</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F24" t="n">
-        <v>185.8251376843538</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G24" t="n">
-        <v>65.7653197562182</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H24" t="n">
         <v>18.39687801105209</v>
@@ -6068,25 +6068,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J24" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K24" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L24" t="n">
-        <v>246.0582433978217</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M24" t="n">
-        <v>246.0582433978217</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="N24" t="n">
-        <v>246.0582433978217</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O24" t="n">
-        <v>464.5211697790654</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P24" t="n">
-        <v>692.182535165835</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q24" t="n">
         <v>919.8439005526046</v>
@@ -6095,25 +6095,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S24" t="n">
-        <v>919.8439005526046</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T24" t="n">
-        <v>742.8600887515131</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="U24" t="n">
-        <v>532.7969454301549</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="V24" t="n">
-        <v>310.256943801222</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="W24" t="n">
-        <v>310.256943801222</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="X24" t="n">
-        <v>310.256943801222</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="Y24" t="n">
-        <v>310.256943801222</v>
+        <v>711.8147072764214</v>
       </c>
     </row>
     <row r="25">
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>18.39687801105209</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="C25" t="n">
-        <v>18.39687801105209</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="D25" t="n">
-        <v>18.39687801105209</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="E25" t="n">
         <v>18.39687801105209</v>
@@ -6177,22 +6177,22 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T25" t="n">
-        <v>919.8439005526046</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="U25" t="n">
         <v>687.5600872817448</v>
       </c>
       <c r="V25" t="n">
-        <v>455.276274010885</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W25" t="n">
-        <v>250.6806912819119</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X25" t="n">
-        <v>18.39687801105209</v>
+        <v>582.2757700265075</v>
       </c>
       <c r="Y25" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1637088431509</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C26" t="n">
-        <v>687.5600872817448</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D26" t="n">
-        <v>455.276274010885</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E26" t="n">
-        <v>222.9924607400252</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F26" t="n">
-        <v>222.9924607400252</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G26" t="n">
         <v>18.39687801105209</v>
@@ -6226,25 +6226,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J26" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K26" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L26" t="n">
-        <v>18.39687801105209</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M26" t="n">
-        <v>52.01424425134721</v>
+        <v>846.030747080189</v>
       </c>
       <c r="N26" t="n">
-        <v>279.6756096381168</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="O26" t="n">
-        <v>507.3369750248864</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P26" t="n">
-        <v>734.998340411656</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q26" t="n">
         <v>919.8439005526046</v>
@@ -6253,25 +6253,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S26" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T26" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U26" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="V26" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="W26" t="n">
-        <v>919.8439005526046</v>
+        <v>297.5459297822121</v>
       </c>
       <c r="X26" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y26" t="n">
-        <v>919.8439005526046</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>486.4953946594633</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C27" t="n">
-        <v>486.4953946594633</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D27" t="n">
-        <v>486.4953946594633</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E27" t="n">
-        <v>400.5731724435433</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F27" t="n">
-        <v>276.1413663266751</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G27" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H27" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I27" t="n">
         <v>18.39687801105209</v>
@@ -6308,19 +6308,19 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K27" t="n">
-        <v>236.8598043922958</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L27" t="n">
-        <v>464.5211697790654</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M27" t="n">
-        <v>692.182535165835</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="N27" t="n">
-        <v>692.182535165835</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="O27" t="n">
-        <v>692.182535165835</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="P27" t="n">
         <v>919.8439005526046</v>
@@ -6329,28 +6329,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R27" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S27" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T27" t="n">
-        <v>895.9268574506692</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U27" t="n">
-        <v>895.9268574506692</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="V27" t="n">
-        <v>895.9268574506692</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="W27" t="n">
-        <v>665.8096115839561</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="X27" t="n">
-        <v>665.8096115839561</v>
+        <v>349.5074293765062</v>
       </c>
       <c r="Y27" t="n">
-        <v>486.4953946594633</v>
+        <v>170.1932124520134</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>18.39687801105209</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="C28" t="n">
-        <v>18.39687801105209</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="D28" t="n">
-        <v>18.39687801105209</v>
+        <v>408.0259848168366</v>
       </c>
       <c r="E28" t="n">
-        <v>18.39687801105209</v>
+        <v>252.4671726760391</v>
       </c>
       <c r="F28" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="G28" t="n">
-        <v>18.39687801105209</v>
+        <v>173.8754290495581</v>
       </c>
       <c r="H28" t="n">
         <v>18.39687801105209</v>
@@ -6384,19 +6384,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J28" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K28" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L28" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M28" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N28" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O28" t="n">
         <v>796.5455384059751</v>
@@ -6408,28 +6408,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R28" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S28" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T28" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U28" t="n">
-        <v>706.0765657361283</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="V28" t="n">
-        <v>706.0765657361283</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="W28" t="n">
-        <v>473.7927524652685</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="X28" t="n">
-        <v>241.5089391944087</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="Y28" t="n">
-        <v>18.39687801105209</v>
+        <v>563.6590979143218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>881.8509868381266</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C29" t="n">
-        <v>881.8509868381266</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D29" t="n">
-        <v>649.5671735672668</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="E29" t="n">
-        <v>649.5671735672668</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="F29" t="n">
-        <v>417.283360296407</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G29" t="n">
-        <v>184.9995470255472</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H29" t="n">
-        <v>156.7339949185873</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I29" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J29" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K29" t="n">
-        <v>236.8598043922958</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L29" t="n">
-        <v>464.5211697790654</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M29" t="n">
-        <v>692.182535165835</v>
+        <v>734.998340411656</v>
       </c>
       <c r="N29" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P29" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q29" t="n">
         <v>919.8439005526046</v>
@@ -6490,25 +6490,25 @@
         <v>881.8509868381266</v>
       </c>
       <c r="S29" t="n">
-        <v>881.8509868381266</v>
+        <v>715.3374317791771</v>
       </c>
       <c r="T29" t="n">
-        <v>881.8509868381266</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="U29" t="n">
-        <v>881.8509868381266</v>
+        <v>491.8368293385938</v>
       </c>
       <c r="V29" t="n">
-        <v>881.8509868381266</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W29" t="n">
-        <v>881.8509868381266</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X29" t="n">
-        <v>881.8509868381266</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y29" t="n">
-        <v>881.8509868381266</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J30" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K30" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L30" t="n">
-        <v>18.39687801105209</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M30" t="n">
-        <v>246.0582433978217</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="N30" t="n">
-        <v>246.0582433978217</v>
+        <v>814.4959563910883</v>
       </c>
       <c r="O30" t="n">
-        <v>473.7196087845913</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="P30" t="n">
-        <v>701.380974171361</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="Q30" t="n">
         <v>919.8439005526046</v>
@@ -6572,19 +6572,19 @@
         <v>919.8439005526046</v>
       </c>
       <c r="T30" t="n">
-        <v>919.8439005526046</v>
+        <v>742.8600887515131</v>
       </c>
       <c r="U30" t="n">
-        <v>709.7807572312464</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="V30" t="n">
-        <v>487.2407556023135</v>
+        <v>310.256943801222</v>
       </c>
       <c r="W30" t="n">
-        <v>257.1235097356004</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="X30" t="n">
-        <v>67.81643208561201</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="Y30" t="n">
         <v>18.39687801105209</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>331.375284643462</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="C31" t="n">
-        <v>331.375284643462</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="D31" t="n">
-        <v>175.7421715459768</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="E31" t="n">
-        <v>175.7421715459768</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F31" t="n">
-        <v>175.7421715459768</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G31" t="n">
-        <v>175.7421715459768</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H31" t="n">
-        <v>20.26362050747073</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I31" t="n">
-        <v>20.26362050747073</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J31" t="n">
         <v>18.39687801105209</v>
@@ -6630,7 +6630,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M31" t="n">
-        <v>450.6511373330578</v>
+        <v>450.6511373330579</v>
       </c>
       <c r="N31" t="n">
         <v>633.8407713642671</v>
@@ -6645,28 +6645,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R31" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S31" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T31" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="U31" t="n">
-        <v>563.6590979143218</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="V31" t="n">
-        <v>563.6590979143218</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="W31" t="n">
-        <v>331.375284643462</v>
+        <v>687.5600872817448</v>
       </c>
       <c r="X31" t="n">
-        <v>331.375284643462</v>
+        <v>455.276274010885</v>
       </c>
       <c r="Y31" t="n">
-        <v>331.375284643462</v>
+        <v>232.1642128275284</v>
       </c>
     </row>
     <row r="32">
@@ -6676,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>687.5600872817448</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="C32" t="n">
-        <v>687.5600872817448</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="D32" t="n">
-        <v>687.5600872817448</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="E32" t="n">
-        <v>687.5600872817448</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="F32" t="n">
-        <v>621.3016214603068</v>
+        <v>521.0465322227953</v>
       </c>
       <c r="G32" t="n">
-        <v>389.017808189447</v>
+        <v>288.7627189519355</v>
       </c>
       <c r="H32" t="n">
-        <v>156.7339949185873</v>
+        <v>56.47890568107576</v>
       </c>
       <c r="I32" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J32" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K32" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L32" t="n">
-        <v>236.8598043922958</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="M32" t="n">
-        <v>464.5211697790654</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="N32" t="n">
-        <v>692.182535165835</v>
+        <v>734.998340411656</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="P32" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q32" t="n">
         <v>919.8439005526046</v>
@@ -6727,25 +6727,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S32" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T32" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U32" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="V32" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="W32" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="X32" t="n">
-        <v>687.5600872817448</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="Y32" t="n">
-        <v>687.5600872817448</v>
+        <v>753.3303454936552</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>768.3756071629947</v>
+        <v>429.9294054569403</v>
       </c>
       <c r="C33" t="n">
-        <v>617.7213767230869</v>
+        <v>279.2751750170326</v>
       </c>
       <c r="D33" t="n">
-        <v>487.6324093445672</v>
+        <v>279.2751750170326</v>
       </c>
       <c r="E33" t="n">
-        <v>351.1859184554549</v>
+        <v>142.8286841279203</v>
       </c>
       <c r="F33" t="n">
-        <v>226.7541123385867</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G33" t="n">
-        <v>106.6942944104512</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H33" t="n">
         <v>18.39687801105209</v>
@@ -6782,16 +6782,16 @@
         <v>131.5118602307795</v>
       </c>
       <c r="K33" t="n">
-        <v>359.1732256175491</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="L33" t="n">
-        <v>464.5211697790654</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="M33" t="n">
-        <v>464.5211697790654</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5211697790654</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="O33" t="n">
         <v>464.5211697790654</v>
@@ -6803,28 +6803,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R33" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S33" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T33" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U33" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V33" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="W33" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="X33" t="n">
-        <v>784.9132234524734</v>
+        <v>760.996180350538</v>
       </c>
       <c r="Y33" t="n">
-        <v>784.9132234524734</v>
+        <v>581.7257398979017</v>
       </c>
     </row>
     <row r="34">
@@ -6834,43 +6834,43 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>502.3520685904435</v>
+        <v>499.4554177371396</v>
       </c>
       <c r="C34" t="n">
-        <v>332.1469506564328</v>
+        <v>499.4554177371396</v>
       </c>
       <c r="D34" t="n">
-        <v>186.6509319116065</v>
+        <v>499.4554177371396</v>
       </c>
       <c r="E34" t="n">
-        <v>186.6509319116065</v>
+        <v>499.4554177371396</v>
       </c>
       <c r="F34" t="n">
-        <v>186.6509319116065</v>
+        <v>342.1294829501126</v>
       </c>
       <c r="G34" t="n">
+        <v>173.8754290495581</v>
+      </c>
+      <c r="H34" t="n">
         <v>18.39687801105209</v>
       </c>
-      <c r="H34" t="n">
-        <v>18.39687801105208</v>
-      </c>
       <c r="I34" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J34" t="n">
-        <v>18.39687801105208</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="K34" t="n">
-        <v>100.2319191209939</v>
+        <v>100.231919120994</v>
       </c>
       <c r="L34" t="n">
-        <v>264.3595589947937</v>
+        <v>264.3595589947938</v>
       </c>
       <c r="M34" t="n">
         <v>450.6511373330578</v>
       </c>
       <c r="N34" t="n">
-        <v>633.840771364267</v>
+        <v>633.8407713642671</v>
       </c>
       <c r="O34" t="n">
         <v>796.5455384059751</v>
@@ -6882,28 +6882,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R34" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S34" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T34" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U34" t="n">
-        <v>687.5600872817448</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="V34" t="n">
-        <v>687.5600872817448</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="W34" t="n">
-        <v>687.5600872817448</v>
+        <v>563.6590979143218</v>
       </c>
       <c r="X34" t="n">
-        <v>687.5600872817448</v>
+        <v>499.4554177371396</v>
       </c>
       <c r="Y34" t="n">
-        <v>687.5600872817448</v>
+        <v>499.4554177371396</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C35" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="D35" t="n">
         <v>250.6806912819119</v>
@@ -6925,7 +6925,7 @@
         <v>250.6806912819119</v>
       </c>
       <c r="F35" t="n">
-        <v>250.6806912819119</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G35" t="n">
         <v>18.39687801105209</v>
@@ -6937,22 +6937,22 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J35" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K35" t="n">
-        <v>246.0582433978217</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L35" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="M35" t="n">
+        <v>236.8598043922958</v>
+      </c>
+      <c r="N35" t="n">
         <v>464.5211697790654</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>692.182535165835</v>
-      </c>
-      <c r="N35" t="n">
-        <v>692.182535165835</v>
-      </c>
-      <c r="O35" t="n">
-        <v>919.8439005526046</v>
       </c>
       <c r="P35" t="n">
         <v>919.8439005526046</v>
@@ -6964,25 +6964,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S35" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T35" t="n">
-        <v>919.8439005526046</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U35" t="n">
-        <v>919.8439005526046</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V35" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="W35" t="n">
-        <v>715.2483178236314</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="X35" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="Y35" t="n">
-        <v>482.9645045527716</v>
+        <v>250.6806912819119</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>18.39687801105209</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="C36" t="n">
-        <v>18.39687801105209</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="D36" t="n">
-        <v>18.39687801105209</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="E36" t="n">
-        <v>18.39687801105209</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="F36" t="n">
-        <v>18.39687801105209</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="G36" t="n">
-        <v>18.39687801105209</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="H36" t="n">
         <v>18.39687801105209</v>
@@ -7016,19 +7016,19 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J36" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K36" t="n">
-        <v>18.39687801105209</v>
+        <v>236.8598043922958</v>
       </c>
       <c r="L36" t="n">
-        <v>246.0582433978217</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="M36" t="n">
-        <v>473.7196087845913</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N36" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O36" t="n">
         <v>919.8439005526046</v>
@@ -7049,19 +7049,19 @@
         <v>742.8600887515131</v>
       </c>
       <c r="U36" t="n">
-        <v>742.8600887515131</v>
+        <v>532.7969454301549</v>
       </c>
       <c r="V36" t="n">
-        <v>538.8145070264945</v>
+        <v>310.256943801222</v>
       </c>
       <c r="W36" t="n">
-        <v>538.8145070264945</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="X36" t="n">
-        <v>349.5074293765062</v>
+        <v>80.1396979345088</v>
       </c>
       <c r="Y36" t="n">
-        <v>170.1932124520134</v>
+        <v>80.1396979345088</v>
       </c>
     </row>
     <row r="37">
@@ -7071,13 +7071,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>18.39687801105209</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="C37" t="n">
-        <v>18.39687801105209</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="D37" t="n">
-        <v>18.39687801105209</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="E37" t="n">
         <v>18.39687801105209</v>
@@ -7104,7 +7104,7 @@
         <v>264.3595589947938</v>
       </c>
       <c r="M37" t="n">
-        <v>450.6511373330579</v>
+        <v>450.6511373330578</v>
       </c>
       <c r="N37" t="n">
         <v>633.8407713642671</v>
@@ -7119,28 +7119,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R37" t="n">
-        <v>795.9429111851816</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S37" t="n">
-        <v>593.126827367731</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T37" t="n">
-        <v>360.8430140968712</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="U37" t="n">
-        <v>128.5592008260114</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="V37" t="n">
-        <v>128.5592008260114</v>
+        <v>406.2395034227094</v>
       </c>
       <c r="W37" t="n">
-        <v>128.5592008260114</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="X37" t="n">
-        <v>18.39687801105209</v>
+        <v>173.9556901518496</v>
       </c>
       <c r="Y37" t="n">
-        <v>18.39687801105209</v>
+        <v>173.9556901518496</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="C38" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="D38" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="E38" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="F38" t="n">
         <v>250.6806912819119</v>
       </c>
-      <c r="C38" t="n">
+      <c r="G38" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="D38" t="n">
-        <v>250.6806912819119</v>
-      </c>
-      <c r="E38" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="F38" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="G38" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="H38" t="n">
         <v>18.39687801105209</v>
@@ -7177,49 +7177,49 @@
         <v>18.39687801105209</v>
       </c>
       <c r="K38" t="n">
-        <v>246.0582433978217</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="L38" t="n">
-        <v>473.7196087845913</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="M38" t="n">
-        <v>473.7196087845913</v>
+        <v>52.01424425134721</v>
       </c>
       <c r="N38" t="n">
-        <v>701.380974171361</v>
+        <v>279.6756096381168</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8439005526046</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P38" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q38" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R38" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S38" t="n">
-        <v>881.8509868381266</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="T38" t="n">
-        <v>881.8509868381266</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="U38" t="n">
-        <v>881.8509868381266</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="V38" t="n">
-        <v>881.8509868381266</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W38" t="n">
-        <v>881.8509868381266</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X38" t="n">
-        <v>649.5671735672668</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="Y38" t="n">
-        <v>417.283360296407</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>665.8096115839561</v>
+        <v>399.3349929451682</v>
       </c>
       <c r="C39" t="n">
-        <v>515.1553811440483</v>
+        <v>399.3349929451682</v>
       </c>
       <c r="D39" t="n">
-        <v>515.1553811440483</v>
+        <v>399.3349929451682</v>
       </c>
       <c r="E39" t="n">
-        <v>400.5731724435433</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="F39" t="n">
-        <v>276.1413663266751</v>
+        <v>138.4566959391877</v>
       </c>
       <c r="G39" t="n">
-        <v>156.0815483985396</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H39" t="n">
-        <v>67.7841319991405</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I39" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J39" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K39" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L39" t="n">
-        <v>246.0582433978217</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M39" t="n">
-        <v>246.0582433978217</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N39" t="n">
-        <v>246.0582433978217</v>
+        <v>692.182535165835</v>
       </c>
       <c r="O39" t="n">
-        <v>473.7196087845913</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P39" t="n">
-        <v>701.380974171361</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q39" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R39" t="n">
-        <v>895.9268574506692</v>
+        <v>919.8439005526046</v>
       </c>
       <c r="S39" t="n">
-        <v>895.9268574506692</v>
+        <v>784.9132234524734</v>
       </c>
       <c r="T39" t="n">
-        <v>895.9268574506692</v>
+        <v>607.9294116513819</v>
       </c>
       <c r="U39" t="n">
-        <v>895.9268574506692</v>
+        <v>578.6492098696609</v>
       </c>
       <c r="V39" t="n">
-        <v>895.9268574506692</v>
+        <v>578.6492098696609</v>
       </c>
       <c r="W39" t="n">
-        <v>665.8096115839561</v>
+        <v>578.6492098696609</v>
       </c>
       <c r="X39" t="n">
-        <v>665.8096115839561</v>
+        <v>578.6492098696609</v>
       </c>
       <c r="Y39" t="n">
-        <v>665.8096115839561</v>
+        <v>399.3349929451682</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>270.0682553195837</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="C40" t="n">
-        <v>270.0682553195837</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="D40" t="n">
-        <v>270.0682553195837</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="E40" t="n">
-        <v>270.0682553195837</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="F40" t="n">
-        <v>270.0682553195837</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="G40" t="n">
-        <v>270.0682553195837</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="H40" t="n">
-        <v>181.8695735478723</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="I40" t="n">
-        <v>48.77514818495014</v>
+        <v>18.39687801105209</v>
       </c>
       <c r="J40" t="n">
         <v>18.39687801105209</v>
@@ -7359,25 +7359,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S40" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="T40" t="n">
-        <v>919.8439005526046</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="U40" t="n">
-        <v>687.5600872817448</v>
+        <v>717.0278167351539</v>
       </c>
       <c r="V40" t="n">
-        <v>687.5600872817448</v>
+        <v>484.7440034642941</v>
       </c>
       <c r="W40" t="n">
-        <v>687.5600872817448</v>
+        <v>252.4601901934343</v>
       </c>
       <c r="X40" t="n">
-        <v>455.276274010885</v>
+        <v>20.17637692257455</v>
       </c>
       <c r="Y40" t="n">
-        <v>455.276274010885</v>
+        <v>18.39687801105209</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>18.39687801105209</v>
+        <v>250.6806912819119</v>
       </c>
       <c r="C41" t="n">
         <v>18.39687801105209</v>
@@ -7414,22 +7414,22 @@
         <v>163.0466509198802</v>
       </c>
       <c r="K41" t="n">
-        <v>236.8598043922958</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L41" t="n">
-        <v>464.5211697790654</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="M41" t="n">
-        <v>464.5211697790654</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="N41" t="n">
-        <v>464.5211697790654</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="O41" t="n">
-        <v>692.182535165835</v>
+        <v>507.3369750248864</v>
       </c>
       <c r="P41" t="n">
-        <v>919.8439005526046</v>
+        <v>734.998340411656</v>
       </c>
       <c r="Q41" t="n">
         <v>919.8439005526046</v>
@@ -7438,25 +7438,25 @@
         <v>919.8439005526046</v>
       </c>
       <c r="S41" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="T41" t="n">
-        <v>919.8439005526046</v>
+        <v>753.3303454936552</v>
       </c>
       <c r="U41" t="n">
-        <v>919.8439005526046</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="V41" t="n">
-        <v>687.5600872817448</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="W41" t="n">
-        <v>455.276274010885</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="X41" t="n">
-        <v>222.9924607400252</v>
+        <v>715.2483178236314</v>
       </c>
       <c r="Y41" t="n">
-        <v>18.39687801105209</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>266.4393906126095</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="C42" t="n">
-        <v>115.7851601727018</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="D42" t="n">
-        <v>115.7851601727018</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="E42" t="n">
-        <v>18.39687801105209</v>
+        <v>400.5731724435433</v>
       </c>
       <c r="F42" t="n">
-        <v>18.39687801105209</v>
+        <v>276.1413663266751</v>
       </c>
       <c r="G42" t="n">
-        <v>18.39687801105209</v>
+        <v>156.0815483985396</v>
       </c>
       <c r="H42" t="n">
-        <v>18.39687801105209</v>
+        <v>67.7841319991405</v>
       </c>
       <c r="I42" t="n">
         <v>18.39687801105209</v>
       </c>
       <c r="J42" t="n">
-        <v>18.39687801105209</v>
+        <v>131.5118602307795</v>
       </c>
       <c r="K42" t="n">
-        <v>18.39687801105209</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="L42" t="n">
-        <v>236.8598043922958</v>
+        <v>586.8345910043187</v>
       </c>
       <c r="M42" t="n">
-        <v>464.5211697790654</v>
+        <v>692.182535165835</v>
       </c>
       <c r="N42" t="n">
         <v>692.182535165835</v>
       </c>
       <c r="O42" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="P42" t="n">
         <v>919.8439005526046</v>
@@ -7517,25 +7517,25 @@
         <v>895.9268574506692</v>
       </c>
       <c r="S42" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="T42" t="n">
-        <v>895.9268574506692</v>
+        <v>760.996180350538</v>
       </c>
       <c r="U42" t="n">
-        <v>685.863714129311</v>
+        <v>760.996180350538</v>
       </c>
       <c r="V42" t="n">
-        <v>685.863714129311</v>
+        <v>538.4561787216051</v>
       </c>
       <c r="W42" t="n">
-        <v>455.7464682625979</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="X42" t="n">
-        <v>266.4393906126095</v>
+        <v>537.0196633326556</v>
       </c>
       <c r="Y42" t="n">
-        <v>266.4393906126095</v>
+        <v>537.0196633326556</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>222.9924607400252</v>
+        <v>657.1198559703727</v>
       </c>
       <c r="C43" t="n">
-        <v>222.9924607400252</v>
+        <v>486.9147380363619</v>
       </c>
       <c r="D43" t="n">
-        <v>222.9924607400252</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="E43" t="n">
         <v>175.7228127980791</v>
@@ -7593,28 +7593,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R43" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S43" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="T43" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="U43" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="V43" t="n">
-        <v>687.5600872817448</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="W43" t="n">
-        <v>455.276274010885</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="X43" t="n">
-        <v>222.9924607400252</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.9924607400252</v>
+        <v>795.9429111851816</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="C44" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="D44" t="n">
+        <v>482.9645045527716</v>
+      </c>
+      <c r="E44" t="n">
         <v>250.6806912819119</v>
-      </c>
-      <c r="C44" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="D44" t="n">
-        <v>18.39687801105209</v>
-      </c>
-      <c r="E44" t="n">
-        <v>18.39687801105209</v>
       </c>
       <c r="F44" t="n">
         <v>18.39687801105209</v>
@@ -7648,25 +7648,25 @@
         <v>18.39687801105209</v>
       </c>
       <c r="J44" t="n">
-        <v>18.39687801105209</v>
+        <v>163.0466509198802</v>
       </c>
       <c r="K44" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="L44" t="n">
-        <v>18.39687801105209</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="M44" t="n">
-        <v>246.0582433978217</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="N44" t="n">
-        <v>473.7196087845913</v>
+        <v>390.7080163066498</v>
       </c>
       <c r="O44" t="n">
-        <v>701.380974171361</v>
+        <v>618.3693816934194</v>
       </c>
       <c r="P44" t="n">
-        <v>734.998340411656</v>
+        <v>846.030747080189</v>
       </c>
       <c r="Q44" t="n">
         <v>919.8439005526046</v>
@@ -7678,22 +7678,22 @@
         <v>753.3303454936552</v>
       </c>
       <c r="T44" t="n">
-        <v>753.3303454936552</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="U44" t="n">
-        <v>753.3303454936552</v>
+        <v>529.8297430530719</v>
       </c>
       <c r="V44" t="n">
-        <v>521.0465322227953</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="W44" t="n">
-        <v>521.0465322227953</v>
+        <v>482.9645045527716</v>
       </c>
       <c r="X44" t="n">
         <v>482.9645045527716</v>
       </c>
       <c r="Y44" t="n">
-        <v>250.6806912819119</v>
+        <v>482.9645045527716</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>680.0781907635957</v>
+        <v>543.6316998744833</v>
       </c>
       <c r="C45" t="n">
-        <v>529.4239603236879</v>
+        <v>392.9774694345755</v>
       </c>
       <c r="D45" t="n">
-        <v>399.3349929451682</v>
+        <v>262.8885020560559</v>
       </c>
       <c r="E45" t="n">
         <v>262.8885020560559</v>
@@ -7733,10 +7733,10 @@
         <v>359.1732256175491</v>
       </c>
       <c r="L45" t="n">
-        <v>586.8345910043187</v>
+        <v>359.1732256175491</v>
       </c>
       <c r="M45" t="n">
-        <v>692.182535165835</v>
+        <v>464.5211697790654</v>
       </c>
       <c r="N45" t="n">
         <v>692.182535165835</v>
@@ -7745,34 +7745,34 @@
         <v>692.182535165835</v>
       </c>
       <c r="P45" t="n">
-        <v>919.8439005526046</v>
+        <v>692.182535165835</v>
       </c>
       <c r="Q45" t="n">
         <v>919.8439005526046</v>
       </c>
       <c r="R45" t="n">
-        <v>919.8439005526046</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="S45" t="n">
-        <v>784.9132234524734</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="T45" t="n">
-        <v>784.9132234524734</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="U45" t="n">
-        <v>784.9132234524734</v>
+        <v>895.9268574506692</v>
       </c>
       <c r="V45" t="n">
-        <v>784.9132234524734</v>
+        <v>773.7489457411964</v>
       </c>
       <c r="W45" t="n">
-        <v>784.9132234524734</v>
+        <v>543.6316998744833</v>
       </c>
       <c r="X45" t="n">
-        <v>784.9132234524734</v>
+        <v>543.6316998744833</v>
       </c>
       <c r="Y45" t="n">
-        <v>784.9132234524734</v>
+        <v>543.6316998744833</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="C46" t="n">
-        <v>18.39687801105209</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="D46" t="n">
-        <v>18.39687801105209</v>
+        <v>331.2816249388766</v>
       </c>
       <c r="E46" t="n">
-        <v>18.39687801105209</v>
+        <v>175.7228127980791</v>
       </c>
       <c r="F46" t="n">
         <v>18.39687801105209</v>
@@ -7830,28 +7830,28 @@
         <v>919.8439005526046</v>
       </c>
       <c r="R46" t="n">
-        <v>919.8439005526046</v>
+        <v>795.9429111851816</v>
       </c>
       <c r="S46" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="T46" t="n">
-        <v>919.8439005526046</v>
+        <v>593.126827367731</v>
       </c>
       <c r="U46" t="n">
-        <v>687.5600872817448</v>
+        <v>593.126827367731</v>
       </c>
       <c r="V46" t="n">
-        <v>455.276274010885</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="W46" t="n">
-        <v>222.9924607400252</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="X46" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
       <c r="Y46" t="n">
-        <v>18.39687801105209</v>
+        <v>360.8430140968712</v>
       </c>
     </row>
   </sheetData>
@@ -9163,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>143.0584031792374</v>
+        <v>260.8654321875572</v>
       </c>
       <c r="L17" t="n">
         <v>153.2481697304917</v>
@@ -9175,16 +9175,16 @@
         <v>149.7250515977273</v>
       </c>
       <c r="N17" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O17" t="n">
         <v>149.5638374240964</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9242,10 +9242,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L18" t="n">
         <v>90.06034685691823</v>
@@ -9254,16 +9254,16 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O18" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P18" t="n">
-        <v>87.08336481931465</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9324,25 +9324,25 @@
         <v>52.4725364634484</v>
       </c>
       <c r="K19" t="n">
-        <v>83.85861781084799</v>
+        <v>166.520275497658</v>
       </c>
       <c r="L19" t="n">
-        <v>87.67503958280489</v>
+        <v>253.460534404825</v>
       </c>
       <c r="M19" t="n">
-        <v>90.30175956594327</v>
+        <v>278.4750710187352</v>
       </c>
       <c r="N19" t="n">
-        <v>82.99560390240157</v>
+        <v>268.0356382773604</v>
       </c>
       <c r="O19" t="n">
-        <v>89.9967499936978</v>
+        <v>254.3449995307766</v>
       </c>
       <c r="P19" t="n">
-        <v>89.52320263194594</v>
+        <v>210.6102387699041</v>
       </c>
       <c r="Q19" t="n">
-        <v>98.47825105913979</v>
+        <v>101.9350150692923</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K20" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L20" t="n">
-        <v>271.0551987388116</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M20" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N20" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O20" t="n">
-        <v>149.5638374240964</v>
+        <v>267.3708664324162</v>
       </c>
       <c r="P20" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9482,7 +9482,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>320.0213219950694</v>
@@ -9491,10 +9491,10 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O21" t="n">
-        <v>199.0996236985014</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P21" t="n">
         <v>317.0443399574658</v>
@@ -9637,28 +9637,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L23" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M23" t="n">
-        <v>183.681987193985</v>
+        <v>224.2837924789551</v>
       </c>
       <c r="N23" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O23" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P23" t="n">
         <v>380.2624223790764</v>
       </c>
       <c r="Q23" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R23" t="n">
         <v>102.5176150018526</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L24" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>322.3480971874631</v>
       </c>
       <c r="N24" t="n">
-        <v>85.37211285416666</v>
+        <v>191.7841776637791</v>
       </c>
       <c r="O24" t="n">
-        <v>313.3571814962058</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>320.9491282940651</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9874,28 +9874,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K26" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L26" t="n">
-        <v>153.2481697304917</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M26" t="n">
-        <v>183.681987193985</v>
+        <v>379.6860267358784</v>
       </c>
       <c r="N26" t="n">
-        <v>379.0794664759352</v>
+        <v>223.677232219012</v>
       </c>
       <c r="O26" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P26" t="n">
-        <v>380.2624223790764</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q26" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R26" t="n">
         <v>102.5176150018526</v>
@@ -9956,22 +9956,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>196.0090001429458</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L27" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N27" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O27" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P27" t="n">
-        <v>317.0443399574658</v>
+        <v>193.4954296289271</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10111,19 +10111,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K29" t="n">
-        <v>363.7280257865542</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L29" t="n">
         <v>383.2091448686429</v>
       </c>
       <c r="M29" t="n">
-        <v>379.6860267358784</v>
+        <v>267.5320806060471</v>
       </c>
       <c r="N29" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O29" t="n">
         <v>149.5638374240964</v>
@@ -10132,7 +10132,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R29" t="n">
         <v>102.5176150018526</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M30" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O30" t="n">
-        <v>322.6485340270401</v>
+        <v>199.0996236985014</v>
       </c>
       <c r="P30" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
-        <v>311.6577757632308</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K32" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L32" t="n">
-        <v>373.9177923378086</v>
+        <v>383.2091448686429</v>
       </c>
       <c r="M32" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N32" t="n">
-        <v>379.0794664759352</v>
+        <v>266.9255203461039</v>
       </c>
       <c r="O32" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P32" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10430,7 +10430,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>319.5579104714845</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>196.4724116665307</v>
@@ -10442,7 +10442,7 @@
         <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>92.68755888888889</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P33" t="n">
         <v>317.0443399574658</v>
@@ -10585,25 +10585,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K35" t="n">
-        <v>373.0193783173885</v>
+        <v>217.6171440604653</v>
       </c>
       <c r="L35" t="n">
-        <v>373.9177923378086</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M35" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N35" t="n">
-        <v>149.1184913377841</v>
+        <v>379.0794664759352</v>
       </c>
       <c r="O35" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P35" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q35" t="n">
         <v>144.4986984183922</v>
@@ -10664,22 +10664,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>196.0090001429458</v>
       </c>
       <c r="L36" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M36" t="n">
-        <v>322.3480971874631</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
         <v>315.3330879923178</v>
       </c>
       <c r="O36" t="n">
-        <v>313.3571814962057</v>
+        <v>322.6485340270401</v>
       </c>
       <c r="P36" t="n">
         <v>87.08336481931465</v>
@@ -10825,10 +10825,10 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K38" t="n">
-        <v>373.0193783173885</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L38" t="n">
-        <v>383.2091448686429</v>
+        <v>187.2051053267494</v>
       </c>
       <c r="M38" t="n">
         <v>149.7250515977273</v>
@@ -10837,13 +10837,13 @@
         <v>379.0794664759352</v>
       </c>
       <c r="O38" t="n">
-        <v>370.2334600314132</v>
+        <v>379.5248125622476</v>
       </c>
       <c r="P38" t="n">
-        <v>150.3014472409252</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L39" t="n">
         <v>320.0213219950694</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N39" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P39" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>311.6577757632308</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11062,10 +11062,10 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K41" t="n">
-        <v>217.6171440604653</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L41" t="n">
-        <v>383.2091448686429</v>
+        <v>271.0551987388115</v>
       </c>
       <c r="M41" t="n">
         <v>149.7250515977273</v>
@@ -11074,13 +11074,13 @@
         <v>149.1184913377841</v>
       </c>
       <c r="O41" t="n">
-        <v>379.5248125622476</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P41" t="n">
         <v>380.2624223790764</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R41" t="n">
         <v>102.5176150018526</v>
@@ -11138,25 +11138,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>319.5579104714845</v>
       </c>
       <c r="L42" t="n">
-        <v>310.7299694642351</v>
+        <v>320.0213219950694</v>
       </c>
       <c r="M42" t="n">
-        <v>322.3480971874631</v>
+        <v>198.7991868589244</v>
       </c>
       <c r="N42" t="n">
-        <v>315.3330879923178</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>322.6485340270401</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
-        <v>87.08336481931465</v>
+        <v>317.0443399574658</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11296,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>143.0584031792374</v>
+        <v>373.0193783173885</v>
       </c>
       <c r="L44" t="n">
         <v>153.2481697304917</v>
       </c>
       <c r="M44" t="n">
-        <v>379.6860267358784</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N44" t="n">
-        <v>379.0794664759352</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O44" t="n">
         <v>379.5248125622476</v>
       </c>
       <c r="P44" t="n">
-        <v>184.2583828371828</v>
+        <v>380.2624223790764</v>
       </c>
       <c r="Q44" t="n">
-        <v>331.2113854294513</v>
+        <v>219.0574392996201</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11381,22 +11381,22 @@
         <v>319.5579104714845</v>
       </c>
       <c r="L45" t="n">
-        <v>320.0213219950694</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M45" t="n">
         <v>198.7991868589244</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>315.3330879923178</v>
       </c>
       <c r="O45" t="n">
         <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>317.0443399574658</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>320.9491282940651</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23734,16 +23734,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>380.4601449441348</v>
       </c>
       <c r="D17" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G17" t="n">
         <v>409.0311279568768</v>
@@ -23779,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23816,13 +23816,13 @@
         <v>149.1476881355087</v>
       </c>
       <c r="D18" t="n">
-        <v>128.7880777047345</v>
+        <v>11.38289532487326</v>
       </c>
       <c r="E18" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>118.8592197488542</v>
@@ -23861,13 +23861,13 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S18" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>220.3146016126436</v>
@@ -23895,7 +23895,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D19" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>154.0032240193895</v>
@@ -23904,7 +23904,7 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G19" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>153.923765528121</v>
@@ -23943,13 +23943,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>121.4995546016729</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W19" t="n">
         <v>280.4970980481341</v>
@@ -23968,19 +23968,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
-        <v>215.6117254357748</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>170.3417118718418</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V20" t="n">
         <v>338.6857412035168</v>
@@ -24037,7 +24037,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24068,7 +24068,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>96.1338512758239</v>
       </c>
       <c r="U21" t="n">
-        <v>165.2890644792332</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="22">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24141,10 +24141,10 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>56.66049327285097</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24183,13 +24183,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>107.5477111278085</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24214,16 +24214,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G23" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>90.88124479102308</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
         <v>136.9537457384598</v>
@@ -24253,16 +24253,16 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>88.25855994539717</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24274,7 +24274,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
-        <v>392.5258019886049</v>
+        <v>181.2807963649477</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>149.1476881355087</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>128.7880777047345</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H24" t="n">
-        <v>40.51968490769063</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I24" t="n">
         <v>48.89338144820752</v>
@@ -24335,16 +24335,16 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S24" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W24" t="n">
         <v>227.816073408046</v>
@@ -24353,7 +24353,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y24" t="n">
-        <v>177.5210747552478</v>
+        <v>105.1535437409563</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24372,7 +24372,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>155.7526754391568</v>
@@ -24417,22 +24417,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>3.400886175297046</v>
       </c>
       <c r="U25" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>77.94747114645074</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>1.778543856695563</v>
+        <v>127.5080449121618</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,22 +24442,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>166.5288231161317</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G26" t="n">
-        <v>206.4815010551934</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24493,13 +24493,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V26" t="n">
         <v>338.6857412035168</v>
@@ -24508,7 +24508,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
-        <v>385.5580790162737</v>
+        <v>339.1614929009766</v>
       </c>
       <c r="Y26" t="n">
         <v>392.5258019886049</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>150.2783710965517</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>149.1476881355087</v>
@@ -24530,19 +24530,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E27" t="n">
-        <v>50.01902598646031</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S27" t="n">
         <v>133.5813703291298</v>
       </c>
       <c r="T27" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>46.35945251493382</v>
       </c>
       <c r="X27" t="n">
         <v>187.4140068734885</v>
@@ -24606,19 +24606,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>155.7526754391568</v>
+        <v>77.94684924894062</v>
       </c>
       <c r="G28" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H28" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>131.7634811092929</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>200.7879229792761</v>
@@ -24657,19 +24657,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
-        <v>70.95474237220648</v>
+        <v>52.62342870236691</v>
       </c>
       <c r="V28" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C29" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -24694,13 +24694,13 @@
         <v>182.7645189471708</v>
       </c>
       <c r="G29" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>292.8593233432839</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,16 +24730,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>329.9021396655529</v>
       </c>
       <c r="W29" t="n">
         <v>367.2890446813954</v>
@@ -24812,7 +24812,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T30" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y30" t="n">
-        <v>128.5957162214335</v>
+        <v>116.3956830310257</v>
       </c>
     </row>
     <row r="31">
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>125.7295010554663</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>155.7526754391568</v>
@@ -24855,13 +24855,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
-        <v>28.22641240070461</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S31" t="n">
         <v>200.7879229792761</v>
@@ -24894,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W31" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>1.778543856695563</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24925,10 +24925,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F32" t="n">
-        <v>347.1296129220984</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
         <v>179.0701528187257</v>
@@ -24937,7 +24937,7 @@
         <v>90.88124479102308</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>99.2525383451364</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24967,7 +24967,7 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>221.2655964161775</v>
@@ -24982,7 +24982,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>133.9061309699678</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>128.7880777047345</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,10 +25010,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I33" t="n">
         <v>48.89338144820752</v>
@@ -25043,7 +25043,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>187.4140068734885</v>
       </c>
       <c r="Y33" t="n">
-        <v>177.5210747552478</v>
+        <v>0.04333870713790589</v>
       </c>
     </row>
     <row r="34">
@@ -25074,25 +25074,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>10.03572340913246</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>200.7879229792761</v>
@@ -25140,7 +25140,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>168.1778756194363</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25159,16 +25159,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>151.6257423573478</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G35" t="n">
-        <v>179.0701528187257</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
         <v>320.8422199291742</v>
@@ -25204,22 +25204,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1952022697474</v>
+        <v>206.7986161544501</v>
       </c>
       <c r="V35" t="n">
-        <v>136.1361143018333</v>
+        <v>108.7247660653656</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
         <v>392.5258019886049</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C36" t="n">
         <v>149.1476881355087</v>
@@ -25250,7 +25250,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H36" t="n">
-        <v>87.41444223540508</v>
+        <v>26.28905051118294</v>
       </c>
       <c r="I36" t="n">
         <v>48.89338144820752</v>
@@ -25289,19 +25289,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>207.9625118881446</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>18.30947570487527</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="37">
@@ -25320,7 +25320,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>3.400886175297046</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>52.62342870236691</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>185.6000966862151</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X37" t="n">
-        <v>122.678819408037</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
         <v>220.8809405715231</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>231.5531559299328</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
         <v>389.2437464820987</v>
@@ -25399,16 +25399,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>168.5967144964697</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G38" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H38" t="n">
-        <v>320.8422199291742</v>
+        <v>90.88124479102308</v>
       </c>
       <c r="I38" t="n">
         <v>136.9537457384598</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>18.71596951449399</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>23.23422713159621</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25456,10 +25456,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X38" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -25472,13 +25472,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D39" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E39" t="n">
-        <v>21.64563936672118</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,10 +25487,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S39" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>207.9625118881446</v>
+        <v>178.9751121242409</v>
       </c>
       <c r="V39" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X39" t="n">
         <v>187.4140068734885</v>
       </c>
       <c r="Y39" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25566,13 +25566,13 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
-        <v>66.60707057412662</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>263.319551727384</v>
+        <v>33.35857658923285</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>50.53612290998299</v>
       </c>
       <c r="X40" t="n">
         <v>1.778543856695563</v>
       </c>
       <c r="Y40" t="n">
-        <v>220.8809405715231</v>
+        <v>219.1192366491158</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.4897982542829</v>
+        <v>166.5288231161317</v>
       </c>
       <c r="C41" t="n">
-        <v>389.2437464820987</v>
+        <v>159.2827713439475</v>
       </c>
       <c r="D41" t="n">
         <v>381.5867174954989</v>
@@ -25678,25 +25678,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
-        <v>253.1952022697474</v>
+        <v>215.4939948764238</v>
       </c>
       <c r="V41" t="n">
-        <v>108.7247660653656</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>137.3280695432443</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>155.5971038781226</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
-        <v>189.9761750869215</v>
+        <v>162.5648268504537</v>
       </c>
     </row>
     <row r="42">
@@ -25709,25 +25709,25 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>149.1476881355087</v>
       </c>
       <c r="D42" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E42" t="n">
-        <v>38.66762664018799</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25757,22 +25757,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>175.2139736830806</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>207.9625118881446</v>
       </c>
       <c r="V42" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>226.393923172986</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y42" t="n">
         <v>177.5210747552478</v>
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>183.3559385043883</v>
+        <v>45.92111384172739</v>
       </c>
       <c r="C43" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>107.2062725568629</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>200.7879229792761</v>
@@ -25845,13 +25845,13 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
-        <v>33.35857658923285</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>1.778543856695563</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25867,16 +25867,16 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
-        <v>159.2827713439475</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E44" t="n">
-        <v>398.5576896346209</v>
+        <v>168.5967144964697</v>
       </c>
       <c r="F44" t="n">
-        <v>412.725494085322</v>
+        <v>182.7645189471708</v>
       </c>
       <c r="G44" t="n">
         <v>409.0311279568768</v>
@@ -25918,22 +25918,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
-        <v>108.7247660653656</v>
+        <v>292.2891550882196</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>347.8568716229503</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>162.5648268504537</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -25943,7 +25943,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>46.49168873456277</v>
+        <v>150.2783710965517</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -25952,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25991,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T45" t="n">
         <v>175.2139736830806</v>
@@ -26003,10 +26003,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V45" t="n">
-        <v>220.3146016126436</v>
+        <v>99.35846902026555</v>
       </c>
       <c r="W45" t="n">
-        <v>227.816073408046</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>187.4140068734885</v>
@@ -26025,16 +26025,16 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>139.237291488256</v>
       </c>
       <c r="D46" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.5715133615489</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>52.62342870236691</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
         <v>33.35857658923285</v>
       </c>
       <c r="W46" t="n">
-        <v>50.53612290998299</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>29.18989209316331</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>232951.5378089735</v>
+        <v>435107.4383510919</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>435107.4383510919</v>
+        <v>435107.4383510918</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>435107.4383510917</v>
+        <v>435107.4383510919</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>435107.4383510918</v>
+        <v>435107.4383510919</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>435107.438351092</v>
+        <v>435107.4383510918</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>435107.4383510918</v>
+        <v>435107.4383510917</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>435107.4383510916</v>
+        <v>435107.4383510919</v>
       </c>
     </row>
   </sheetData>
@@ -26319,28 +26319,28 @@
         <v>41330.11154675335</v>
       </c>
       <c r="D2" t="n">
-        <v>41330.11154675335</v>
+        <v>41330.11154675333</v>
       </c>
       <c r="E2" t="n">
-        <v>41330.11154675335</v>
+        <v>41330.11154675333</v>
       </c>
       <c r="F2" t="n">
-        <v>41330.11154675335</v>
+        <v>41330.11154675333</v>
       </c>
       <c r="G2" t="n">
-        <v>41330.11154675335</v>
+        <v>77161.27852224624</v>
       </c>
       <c r="H2" t="n">
         <v>77161.27852224624</v>
       </c>
       <c r="I2" t="n">
-        <v>77161.27852224627</v>
+        <v>77161.27852224626</v>
       </c>
       <c r="J2" t="n">
-        <v>77161.27852224624</v>
+        <v>77161.27852224623</v>
       </c>
       <c r="K2" t="n">
-        <v>77161.27852224624</v>
+        <v>77161.27852224626</v>
       </c>
       <c r="L2" t="n">
         <v>77161.27852224624</v>
@@ -26349,10 +26349,10 @@
         <v>77161.27852224626</v>
       </c>
       <c r="N2" t="n">
+        <v>77161.27852224627</v>
+      </c>
+      <c r="O2" t="n">
         <v>77161.27852224626</v>
-      </c>
-      <c r="O2" t="n">
-        <v>77161.27852224627</v>
       </c>
       <c r="P2" t="n">
         <v>77161.27852224624</v>
@@ -26380,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>63028.85387074017</v>
       </c>
       <c r="H3" t="n">
-        <v>62045.54074104943</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26404,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>55340.33862797121</v>
       </c>
       <c r="P3" t="n">
-        <v>54356.79553730534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26432,7 +26432,7 @@
         <v>11271.84860366</v>
       </c>
       <c r="G4" t="n">
-        <v>11271.84860366</v>
+        <v>21441.81001251515</v>
       </c>
       <c r="H4" t="n">
         <v>21441.81001251515</v>
@@ -26484,7 +26484,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>13981.62728839959</v>
       </c>
       <c r="H5" t="n">
         <v>13981.62728839959</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3569.337056906646</v>
+        <v>-4996.930551051555</v>
       </c>
       <c r="C6" t="n">
-        <v>-3569.337056906646</v>
+        <v>-4996.930551051548</v>
       </c>
       <c r="D6" t="n">
-        <v>-3569.337056906646</v>
+        <v>-4996.93055105157</v>
       </c>
       <c r="E6" t="n">
-        <v>30058.26294309334</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="F6" t="n">
-        <v>30058.26294309334</v>
+        <v>28630.66944894843</v>
       </c>
       <c r="G6" t="n">
-        <v>30058.26294309334</v>
+        <v>-22392.86826195818</v>
       </c>
       <c r="H6" t="n">
-        <v>-20307.69951971793</v>
+        <v>40635.98560878199</v>
       </c>
       <c r="I6" t="n">
-        <v>41737.84122133153</v>
+        <v>40635.985608782</v>
       </c>
       <c r="J6" t="n">
-        <v>41737.8412213315</v>
+        <v>40635.98560878197</v>
       </c>
       <c r="K6" t="n">
-        <v>41737.8412213315</v>
+        <v>40635.985608782</v>
       </c>
       <c r="L6" t="n">
-        <v>41737.8412213315</v>
+        <v>40635.98560878199</v>
       </c>
       <c r="M6" t="n">
-        <v>41737.84122133151</v>
+        <v>40635.985608782</v>
       </c>
       <c r="N6" t="n">
-        <v>41737.84122133152</v>
+        <v>40635.98560878202</v>
       </c>
       <c r="O6" t="n">
-        <v>41737.84122133152</v>
+        <v>-14704.35301918921</v>
       </c>
       <c r="P6" t="n">
-        <v>-12618.95431597384</v>
+        <v>40635.98560878199</v>
       </c>
     </row>
   </sheetData>
@@ -26804,7 +26804,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H4" t="n">
         <v>229.9609751381512</v>
@@ -27026,34 +27026,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P4" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -35883,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -35895,16 +35895,16 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35974,16 +35974,16 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>165.7854948220201</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>146.110881726089</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
         <v>117.8070290083198</v>
       </c>
-      <c r="M20" t="n">
+      <c r="P20" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N20" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36202,7 +36202,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>229.9609751381512</v>
@@ -36211,10 +36211,10 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O21" t="n">
-        <v>106.4120648096125</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P21" t="n">
         <v>229.9609751381512</v>
@@ -36357,28 +36357,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M23" t="n">
-        <v>33.95693559625769</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="N23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q23" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L24" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="O24" t="n">
-        <v>220.6696226073169</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,28 +36594,28 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M26" t="n">
-        <v>33.95693559625769</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="N26" t="n">
-        <v>229.9609751381512</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="O26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>106.4120648096124</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
       <c r="P27" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36773,7 +36773,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q28" t="n">
-        <v>3.456764010152483</v>
+        <v>3.456764010152508</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,19 +36831,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L29" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M29" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="N29" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -36852,7 +36852,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>229.9609751381512</v>
       </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
       <c r="O30" t="n">
-        <v>229.9609751381512</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="P30" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>220.6696226073168</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36992,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>82.66165768680997</v>
+        <v>82.66165768681005</v>
       </c>
       <c r="L31" t="n">
         <v>165.78549482202</v>
@@ -37010,7 +37010,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q31" t="n">
-        <v>3.456764010152508</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L32" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="O32" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>106.4120648096124</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L33" t="n">
-        <v>106.4120648096125</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>229.9609751381512</v>
@@ -37305,25 +37305,25 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K35" t="n">
+        <v>74.55874088122788</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="L35" t="n">
-        <v>220.6696226073169</v>
-      </c>
-      <c r="M35" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>106.4120648096124</v>
       </c>
       <c r="L36" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M36" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="O36" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37466,7 +37466,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768681005</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37545,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>229.9609751381512</v>
+        <v>33.95693559625769</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -37557,13 +37557,13 @@
         <v>229.9609751381512</v>
       </c>
       <c r="O38" t="n">
-        <v>220.6696226073168</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L39" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>106.4120648096125</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
       </c>
       <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="P39" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>220.6696226073168</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K41" t="n">
-        <v>74.55874088122788</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L41" t="n">
-        <v>229.9609751381512</v>
+        <v>117.8070290083198</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -37794,13 +37794,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L42" t="n">
-        <v>220.6696226073169</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="M42" t="n">
+        <v>106.4120648096125</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>0</v>
+      </c>
+      <c r="P42" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="N42" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="O42" t="n">
-        <v>229.9609751381512</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>229.9609751381512</v>
       </c>
       <c r="P44" t="n">
-        <v>33.95693559625762</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="Q44" t="n">
-        <v>186.7126870110591</v>
+        <v>74.55874088122788</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,22 +38101,22 @@
         <v>229.9609751381512</v>
       </c>
       <c r="L45" t="n">
-        <v>229.9609751381512</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>106.4120648096125</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>229.9609751381512</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
         <v>229.9609751381512</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
